--- a/storage/etcl_maternal_care.xlsx
+++ b/storage/etcl_maternal_care.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cesu\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590EB93F-620E-4EB9-822D-D30CEC5261AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D33A08-10C0-4334-A242-974946C4F3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2240,26 +2240,38 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2267,20 +2279,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2516,8 +2516,8 @@
   </sheetPr>
   <dimension ref="A1:CB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2534,523 +2534,523 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:80" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="22" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="22" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="22" t="s">
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="23"/>
-      <c r="AT1" s="23"/>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="23"/>
-      <c r="AX1" s="23"/>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="22" t="s">
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="26"/>
+      <c r="BB1" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="BC1" s="23"/>
-      <c r="BD1" s="23"/>
-      <c r="BE1" s="23"/>
-      <c r="BF1" s="23"/>
-      <c r="BG1" s="23"/>
-      <c r="BH1" s="23"/>
-      <c r="BI1" s="23"/>
-      <c r="BJ1" s="23"/>
-      <c r="BK1" s="23"/>
-      <c r="BL1" s="23"/>
-      <c r="BM1" s="23"/>
-      <c r="BN1" s="23"/>
-      <c r="BO1" s="24"/>
-      <c r="BP1" s="22" t="s">
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="25"/>
+      <c r="BM1" s="25"/>
+      <c r="BN1" s="25"/>
+      <c r="BO1" s="26"/>
+      <c r="BP1" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="BQ1" s="23"/>
-      <c r="BR1" s="23"/>
-      <c r="BS1" s="23"/>
-      <c r="BT1" s="23"/>
-      <c r="BU1" s="23"/>
-      <c r="BV1" s="23"/>
-      <c r="BW1" s="23"/>
-      <c r="BX1" s="23"/>
-      <c r="BY1" s="23"/>
-      <c r="BZ1" s="23"/>
-      <c r="CA1" s="23"/>
-      <c r="CB1" s="24"/>
+      <c r="BQ1" s="25"/>
+      <c r="BR1" s="25"/>
+      <c r="BS1" s="25"/>
+      <c r="BT1" s="25"/>
+      <c r="BU1" s="25"/>
+      <c r="BV1" s="25"/>
+      <c r="BW1" s="25"/>
+      <c r="BX1" s="25"/>
+      <c r="BY1" s="25"/>
+      <c r="BZ1" s="25"/>
+      <c r="CA1" s="25"/>
+      <c r="CB1" s="26"/>
     </row>
     <row r="2" spans="1:80" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="25" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="36" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="26" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="25" t="s">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="25" t="s">
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="25" t="s">
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="AW2" s="23"/>
-      <c r="AX2" s="23"/>
-      <c r="AY2" s="23"/>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="25" t="s">
+      <c r="AW2" s="25"/>
+      <c r="AX2" s="25"/>
+      <c r="AY2" s="25"/>
+      <c r="AZ2" s="25"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="BC2" s="23"/>
-      <c r="BD2" s="23"/>
-      <c r="BE2" s="24"/>
-      <c r="BF2" s="25" t="s">
+      <c r="BC2" s="25"/>
+      <c r="BD2" s="25"/>
+      <c r="BE2" s="26"/>
+      <c r="BF2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="BG2" s="24"/>
+      <c r="BG2" s="26"/>
       <c r="BH2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BI2" s="25" t="s">
+      <c r="BI2" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="BJ2" s="24"/>
-      <c r="BK2" s="25" t="s">
+      <c r="BJ2" s="26"/>
+      <c r="BK2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="BL2" s="23"/>
-      <c r="BM2" s="23"/>
-      <c r="BN2" s="24"/>
+      <c r="BL2" s="25"/>
+      <c r="BM2" s="25"/>
+      <c r="BN2" s="26"/>
       <c r="BO2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BP2" s="25" t="s">
+      <c r="BP2" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="BQ2" s="24"/>
-      <c r="BR2" s="25" t="s">
+      <c r="BQ2" s="26"/>
+      <c r="BR2" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="BS2" s="23"/>
-      <c r="BT2" s="23"/>
-      <c r="BU2" s="23"/>
-      <c r="BV2" s="24"/>
-      <c r="BW2" s="25" t="s">
+      <c r="BS2" s="25"/>
+      <c r="BT2" s="25"/>
+      <c r="BU2" s="25"/>
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="BX2" s="23"/>
-      <c r="BY2" s="23"/>
-      <c r="BZ2" s="23"/>
-      <c r="CA2" s="24"/>
-      <c r="CB2" s="26" t="s">
+      <c r="BX2" s="25"/>
+      <c r="BY2" s="25"/>
+      <c r="BZ2" s="25"/>
+      <c r="CA2" s="26"/>
+      <c r="CB2" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:80" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="37" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="26" t="s">
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="32"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="36" t="s">
+      <c r="S3" s="36"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="26" t="s">
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" s="26" t="s">
+      <c r="AC3" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="AD3" s="29" t="s">
+      <c r="AD3" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="26" t="s">
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="AK3" s="29" t="s">
+      <c r="AK3" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="29" t="s">
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="26" t="s">
+      <c r="AP3" s="35"/>
+      <c r="AQ3" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="AR3" s="29" t="s">
+      <c r="AR3" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="31"/>
-      <c r="AU3" s="26" t="s">
+      <c r="AS3" s="34"/>
+      <c r="AT3" s="35"/>
+      <c r="AU3" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="AV3" s="25" t="s">
+      <c r="AV3" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="AW3" s="24"/>
-      <c r="AX3" s="25" t="s">
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AY3" s="24"/>
-      <c r="AZ3" s="25" t="s">
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="BA3" s="24"/>
-      <c r="BB3" s="25" t="s">
+      <c r="BA3" s="26"/>
+      <c r="BB3" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="BC3" s="24"/>
-      <c r="BD3" s="25" t="s">
+      <c r="BC3" s="26"/>
+      <c r="BD3" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="BE3" s="24"/>
-      <c r="BF3" s="26" t="s">
+      <c r="BE3" s="26"/>
+      <c r="BF3" s="20" t="s">
         <v>78</v>
       </c>
       <c r="BG3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BH3" s="26" t="s">
+      <c r="BH3" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="BI3" s="26" t="s">
+      <c r="BI3" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="BJ3" s="26" t="s">
+      <c r="BJ3" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="BK3" s="25" t="s">
+      <c r="BK3" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="BL3" s="23"/>
-      <c r="BM3" s="23"/>
-      <c r="BN3" s="24"/>
-      <c r="BO3" s="26" t="s">
+      <c r="BL3" s="25"/>
+      <c r="BM3" s="25"/>
+      <c r="BN3" s="26"/>
+      <c r="BO3" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="BP3" s="26" t="s">
+      <c r="BP3" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="BQ3" s="26" t="s">
+      <c r="BQ3" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="BR3" s="28" t="s">
+      <c r="BR3" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="BS3" s="28" t="s">
+      <c r="BS3" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="BT3" s="28" t="s">
+      <c r="BT3" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="BU3" s="28" t="s">
+      <c r="BU3" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="BV3" s="28" t="s">
+      <c r="BV3" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="BW3" s="29" t="s">
+      <c r="BW3" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="BX3" s="30"/>
-      <c r="BY3" s="31"/>
-      <c r="BZ3" s="26" t="s">
+      <c r="BX3" s="34"/>
+      <c r="BY3" s="35"/>
+      <c r="BZ3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="CA3" s="26" t="s">
+      <c r="CA3" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="CB3" s="27"/>
+      <c r="CB3" s="21"/>
     </row>
     <row r="4" spans="1:80" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="38" t="s">
+      <c r="L4" s="26"/>
+      <c r="M4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="26" t="s">
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="26" t="s">
+      <c r="T4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="26" t="s">
+      <c r="U4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="27"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="27"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="33"/>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="27"/>
-      <c r="AV4" s="28" t="s">
+      <c r="V4" s="21"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="37"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="21"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="37"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="21"/>
+      <c r="AV4" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="AW4" s="28" t="s">
+      <c r="AW4" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="AX4" s="28" t="s">
+      <c r="AX4" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="AY4" s="26" t="s">
+      <c r="AY4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="AZ4" s="28" t="s">
+      <c r="AZ4" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="BA4" s="28" t="s">
+      <c r="BA4" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="BB4" s="28" t="s">
+      <c r="BB4" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="BC4" s="28" t="s">
+      <c r="BC4" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="BD4" s="28" t="s">
+      <c r="BD4" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="BE4" s="28" t="s">
+      <c r="BE4" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="BF4" s="27"/>
-      <c r="BG4" s="28" t="s">
+      <c r="BF4" s="21"/>
+      <c r="BG4" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="BH4" s="27"/>
-      <c r="BI4" s="27"/>
-      <c r="BJ4" s="27"/>
-      <c r="BK4" s="26" t="s">
+      <c r="BH4" s="21"/>
+      <c r="BI4" s="21"/>
+      <c r="BJ4" s="21"/>
+      <c r="BK4" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="BL4" s="28" t="s">
+      <c r="BL4" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="BM4" s="28" t="s">
+      <c r="BM4" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="BN4" s="26" t="s">
+      <c r="BN4" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="BO4" s="27"/>
-      <c r="BP4" s="27"/>
-      <c r="BQ4" s="27"/>
-      <c r="BR4" s="27"/>
-      <c r="BS4" s="27"/>
-      <c r="BT4" s="27"/>
-      <c r="BU4" s="27"/>
-      <c r="BV4" s="27"/>
-      <c r="BW4" s="32"/>
-      <c r="BX4" s="33"/>
-      <c r="BY4" s="34"/>
-      <c r="BZ4" s="27"/>
-      <c r="CA4" s="27"/>
-      <c r="CB4" s="27"/>
+      <c r="BO4" s="21"/>
+      <c r="BP4" s="21"/>
+      <c r="BQ4" s="21"/>
+      <c r="BR4" s="21"/>
+      <c r="BS4" s="21"/>
+      <c r="BT4" s="21"/>
+      <c r="BU4" s="21"/>
+      <c r="BV4" s="21"/>
+      <c r="BW4" s="36"/>
+      <c r="BX4" s="37"/>
+      <c r="BY4" s="38"/>
+      <c r="BZ4" s="21"/>
+      <c r="CA4" s="21"/>
+      <c r="CB4" s="21"/>
     </row>
     <row r="5" spans="1:80" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3075,11 +3075,11 @@
       <c r="Q5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
       <c r="W5" s="1" t="s">
         <v>37</v>
       </c>
@@ -3098,7 +3098,7 @@
       <c r="AB5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AC5" s="21"/>
+      <c r="AC5" s="22"/>
       <c r="AD5" s="4" t="s">
         <v>49</v>
       </c>
@@ -3117,7 +3117,7 @@
       <c r="AI5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AJ5" s="21"/>
+      <c r="AJ5" s="22"/>
       <c r="AK5" s="4" t="s">
         <v>49</v>
       </c>
@@ -3136,7 +3136,7 @@
       <c r="AP5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AQ5" s="21"/>
+      <c r="AQ5" s="22"/>
       <c r="AR5" s="4" t="s">
         <v>50</v>
       </c>
@@ -3146,34 +3146,34 @@
       <c r="AT5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AU5" s="21"/>
-      <c r="AV5" s="21"/>
-      <c r="AW5" s="21"/>
-      <c r="AX5" s="21"/>
-      <c r="AY5" s="21"/>
-      <c r="AZ5" s="21"/>
-      <c r="BA5" s="21"/>
-      <c r="BB5" s="21"/>
-      <c r="BC5" s="21"/>
-      <c r="BD5" s="21"/>
-      <c r="BE5" s="21"/>
-      <c r="BF5" s="21"/>
-      <c r="BG5" s="21"/>
-      <c r="BH5" s="21"/>
-      <c r="BI5" s="21"/>
-      <c r="BJ5" s="21"/>
-      <c r="BK5" s="21"/>
-      <c r="BL5" s="21"/>
-      <c r="BM5" s="21"/>
-      <c r="BN5" s="21"/>
-      <c r="BO5" s="21"/>
-      <c r="BP5" s="21"/>
-      <c r="BQ5" s="21"/>
-      <c r="BR5" s="21"/>
-      <c r="BS5" s="21"/>
-      <c r="BT5" s="21"/>
-      <c r="BU5" s="21"/>
-      <c r="BV5" s="21"/>
+      <c r="AU5" s="22"/>
+      <c r="AV5" s="22"/>
+      <c r="AW5" s="22"/>
+      <c r="AX5" s="22"/>
+      <c r="AY5" s="22"/>
+      <c r="AZ5" s="22"/>
+      <c r="BA5" s="22"/>
+      <c r="BB5" s="22"/>
+      <c r="BC5" s="22"/>
+      <c r="BD5" s="22"/>
+      <c r="BE5" s="22"/>
+      <c r="BF5" s="22"/>
+      <c r="BG5" s="22"/>
+      <c r="BH5" s="22"/>
+      <c r="BI5" s="22"/>
+      <c r="BJ5" s="22"/>
+      <c r="BK5" s="22"/>
+      <c r="BL5" s="22"/>
+      <c r="BM5" s="22"/>
+      <c r="BN5" s="22"/>
+      <c r="BO5" s="22"/>
+      <c r="BP5" s="22"/>
+      <c r="BQ5" s="22"/>
+      <c r="BR5" s="22"/>
+      <c r="BS5" s="22"/>
+      <c r="BT5" s="22"/>
+      <c r="BU5" s="22"/>
+      <c r="BV5" s="22"/>
       <c r="BW5" s="1" t="s">
         <v>106</v>
       </c>
@@ -3183,41 +3183,41 @@
       <c r="BY5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BZ5" s="21"/>
-      <c r="CA5" s="21"/>
-      <c r="CB5" s="21"/>
+      <c r="BZ5" s="22"/>
+      <c r="CA5" s="22"/>
+      <c r="CB5" s="22"/>
     </row>
     <row r="6" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="3" t="s">
         <v>55</v>
@@ -3267,33 +3267,33 @@
         <v>55</v>
       </c>
       <c r="AU6" s="5"/>
-      <c r="AV6" s="20"/>
-      <c r="AW6" s="20"/>
-      <c r="AX6" s="20"/>
-      <c r="AY6" s="20"/>
-      <c r="AZ6" s="20"/>
-      <c r="BA6" s="20"/>
-      <c r="BB6" s="20"/>
-      <c r="BC6" s="20"/>
-      <c r="BD6" s="20"/>
-      <c r="BE6" s="20"/>
-      <c r="BF6" s="20"/>
-      <c r="BG6" s="20"/>
-      <c r="BH6" s="20"/>
-      <c r="BI6" s="20"/>
-      <c r="BJ6" s="20"/>
-      <c r="BK6" s="20"/>
-      <c r="BL6" s="20"/>
-      <c r="BM6" s="20"/>
-      <c r="BN6" s="20"/>
-      <c r="BO6" s="20"/>
-      <c r="BP6" s="20"/>
-      <c r="BQ6" s="20"/>
-      <c r="BR6" s="20"/>
-      <c r="BS6" s="20"/>
-      <c r="BT6" s="20"/>
-      <c r="BU6" s="20"/>
-      <c r="BV6" s="20"/>
+      <c r="AV6" s="30"/>
+      <c r="AW6" s="30"/>
+      <c r="AX6" s="30"/>
+      <c r="AY6" s="30"/>
+      <c r="AZ6" s="30"/>
+      <c r="BA6" s="30"/>
+      <c r="BB6" s="30"/>
+      <c r="BC6" s="30"/>
+      <c r="BD6" s="30"/>
+      <c r="BE6" s="30"/>
+      <c r="BF6" s="30"/>
+      <c r="BG6" s="30"/>
+      <c r="BH6" s="30"/>
+      <c r="BI6" s="30"/>
+      <c r="BJ6" s="30"/>
+      <c r="BK6" s="30"/>
+      <c r="BL6" s="30"/>
+      <c r="BM6" s="30"/>
+      <c r="BN6" s="30"/>
+      <c r="BO6" s="30"/>
+      <c r="BP6" s="30"/>
+      <c r="BQ6" s="30"/>
+      <c r="BR6" s="30"/>
+      <c r="BS6" s="30"/>
+      <c r="BT6" s="30"/>
+      <c r="BU6" s="30"/>
+      <c r="BV6" s="30"/>
       <c r="BW6" s="3" t="s">
         <v>55</v>
       </c>
@@ -3305,39 +3305,39 @@
       </c>
       <c r="BZ6" s="5"/>
       <c r="CA6" s="5"/>
-      <c r="CB6" s="20"/>
+      <c r="CB6" s="30"/>
     </row>
     <row r="7" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
       <c r="AC7" s="3" t="s">
         <v>56</v>
       </c>
@@ -3395,33 +3395,33 @@
       <c r="AU7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AV7" s="21"/>
-      <c r="AW7" s="21"/>
-      <c r="AX7" s="21"/>
-      <c r="AY7" s="21"/>
-      <c r="AZ7" s="21"/>
-      <c r="BA7" s="21"/>
-      <c r="BB7" s="21"/>
-      <c r="BC7" s="21"/>
-      <c r="BD7" s="21"/>
-      <c r="BE7" s="21"/>
-      <c r="BF7" s="21"/>
-      <c r="BG7" s="21"/>
-      <c r="BH7" s="21"/>
-      <c r="BI7" s="21"/>
-      <c r="BJ7" s="21"/>
-      <c r="BK7" s="21"/>
-      <c r="BL7" s="21"/>
-      <c r="BM7" s="21"/>
-      <c r="BN7" s="21"/>
-      <c r="BO7" s="21"/>
-      <c r="BP7" s="21"/>
-      <c r="BQ7" s="21"/>
-      <c r="BR7" s="21"/>
-      <c r="BS7" s="21"/>
-      <c r="BT7" s="21"/>
-      <c r="BU7" s="21"/>
-      <c r="BV7" s="21"/>
+      <c r="AV7" s="22"/>
+      <c r="AW7" s="22"/>
+      <c r="AX7" s="22"/>
+      <c r="AY7" s="22"/>
+      <c r="AZ7" s="22"/>
+      <c r="BA7" s="22"/>
+      <c r="BB7" s="22"/>
+      <c r="BC7" s="22"/>
+      <c r="BD7" s="22"/>
+      <c r="BE7" s="22"/>
+      <c r="BF7" s="22"/>
+      <c r="BG7" s="22"/>
+      <c r="BH7" s="22"/>
+      <c r="BI7" s="22"/>
+      <c r="BJ7" s="22"/>
+      <c r="BK7" s="22"/>
+      <c r="BL7" s="22"/>
+      <c r="BM7" s="22"/>
+      <c r="BN7" s="22"/>
+      <c r="BO7" s="22"/>
+      <c r="BP7" s="22"/>
+      <c r="BQ7" s="22"/>
+      <c r="BR7" s="22"/>
+      <c r="BS7" s="22"/>
+      <c r="BT7" s="22"/>
+      <c r="BU7" s="22"/>
+      <c r="BV7" s="22"/>
       <c r="BW7" s="3" t="s">
         <v>56</v>
       </c>
@@ -3437,39 +3437,39 @@
       <c r="CA7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="CB7" s="21"/>
+      <c r="CB7" s="22"/>
     </row>
     <row r="8" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="3" t="s">
         <v>55</v>
@@ -3519,33 +3519,33 @@
         <v>55</v>
       </c>
       <c r="AU8" s="5"/>
-      <c r="AV8" s="20"/>
-      <c r="AW8" s="20"/>
-      <c r="AX8" s="20"/>
-      <c r="AY8" s="20"/>
-      <c r="AZ8" s="20"/>
-      <c r="BA8" s="20"/>
-      <c r="BB8" s="20"/>
-      <c r="BC8" s="20"/>
-      <c r="BD8" s="20"/>
-      <c r="BE8" s="20"/>
-      <c r="BF8" s="20"/>
-      <c r="BG8" s="20"/>
-      <c r="BH8" s="20"/>
-      <c r="BI8" s="20"/>
-      <c r="BJ8" s="20"/>
-      <c r="BK8" s="20"/>
-      <c r="BL8" s="20"/>
-      <c r="BM8" s="20"/>
-      <c r="BN8" s="20"/>
-      <c r="BO8" s="20"/>
-      <c r="BP8" s="20"/>
-      <c r="BQ8" s="20"/>
-      <c r="BR8" s="20"/>
-      <c r="BS8" s="20"/>
-      <c r="BT8" s="20"/>
-      <c r="BU8" s="20"/>
-      <c r="BV8" s="20"/>
+      <c r="AV8" s="30"/>
+      <c r="AW8" s="30"/>
+      <c r="AX8" s="30"/>
+      <c r="AY8" s="30"/>
+      <c r="AZ8" s="30"/>
+      <c r="BA8" s="30"/>
+      <c r="BB8" s="30"/>
+      <c r="BC8" s="30"/>
+      <c r="BD8" s="30"/>
+      <c r="BE8" s="30"/>
+      <c r="BF8" s="30"/>
+      <c r="BG8" s="30"/>
+      <c r="BH8" s="30"/>
+      <c r="BI8" s="30"/>
+      <c r="BJ8" s="30"/>
+      <c r="BK8" s="30"/>
+      <c r="BL8" s="30"/>
+      <c r="BM8" s="30"/>
+      <c r="BN8" s="30"/>
+      <c r="BO8" s="30"/>
+      <c r="BP8" s="30"/>
+      <c r="BQ8" s="30"/>
+      <c r="BR8" s="30"/>
+      <c r="BS8" s="30"/>
+      <c r="BT8" s="30"/>
+      <c r="BU8" s="30"/>
+      <c r="BV8" s="30"/>
       <c r="BW8" s="3" t="s">
         <v>55</v>
       </c>
@@ -3557,39 +3557,39 @@
       </c>
       <c r="BZ8" s="5"/>
       <c r="CA8" s="5"/>
-      <c r="CB8" s="20"/>
+      <c r="CB8" s="30"/>
     </row>
     <row r="9" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
       <c r="AC9" s="3" t="s">
         <v>56</v>
       </c>
@@ -3647,33 +3647,33 @@
       <c r="AU9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="21"/>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="21"/>
-      <c r="BA9" s="21"/>
-      <c r="BB9" s="21"/>
-      <c r="BC9" s="21"/>
-      <c r="BD9" s="21"/>
-      <c r="BE9" s="21"/>
-      <c r="BF9" s="21"/>
-      <c r="BG9" s="21"/>
-      <c r="BH9" s="21"/>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="21"/>
-      <c r="BK9" s="21"/>
-      <c r="BL9" s="21"/>
-      <c r="BM9" s="21"/>
-      <c r="BN9" s="21"/>
-      <c r="BO9" s="21"/>
-      <c r="BP9" s="21"/>
-      <c r="BQ9" s="21"/>
-      <c r="BR9" s="21"/>
-      <c r="BS9" s="21"/>
-      <c r="BT9" s="21"/>
-      <c r="BU9" s="21"/>
-      <c r="BV9" s="21"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22"/>
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22"/>
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="22"/>
+      <c r="BF9" s="22"/>
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="22"/>
+      <c r="BI9" s="22"/>
+      <c r="BJ9" s="22"/>
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="22"/>
+      <c r="BM9" s="22"/>
+      <c r="BN9" s="22"/>
+      <c r="BO9" s="22"/>
+      <c r="BP9" s="22"/>
+      <c r="BQ9" s="22"/>
+      <c r="BR9" s="22"/>
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="22"/>
+      <c r="BU9" s="22"/>
+      <c r="BV9" s="22"/>
       <c r="BW9" s="3" t="s">
         <v>56</v>
       </c>
@@ -3689,39 +3689,39 @@
       <c r="CA9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="CB9" s="21"/>
+      <c r="CB9" s="22"/>
     </row>
     <row r="10" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="3" t="s">
         <v>55</v>
@@ -3771,33 +3771,33 @@
         <v>55</v>
       </c>
       <c r="AU10" s="5"/>
-      <c r="AV10" s="20"/>
-      <c r="AW10" s="20"/>
-      <c r="AX10" s="20"/>
-      <c r="AY10" s="20"/>
-      <c r="AZ10" s="20"/>
-      <c r="BA10" s="20"/>
-      <c r="BB10" s="20"/>
-      <c r="BC10" s="20"/>
-      <c r="BD10" s="20"/>
-      <c r="BE10" s="20"/>
-      <c r="BF10" s="20"/>
-      <c r="BG10" s="20"/>
-      <c r="BH10" s="20"/>
-      <c r="BI10" s="20"/>
-      <c r="BJ10" s="20"/>
-      <c r="BK10" s="20"/>
-      <c r="BL10" s="20"/>
-      <c r="BM10" s="20"/>
-      <c r="BN10" s="20"/>
-      <c r="BO10" s="20"/>
-      <c r="BP10" s="20"/>
-      <c r="BQ10" s="20"/>
-      <c r="BR10" s="20"/>
-      <c r="BS10" s="20"/>
-      <c r="BT10" s="20"/>
-      <c r="BU10" s="20"/>
-      <c r="BV10" s="20"/>
+      <c r="AV10" s="30"/>
+      <c r="AW10" s="30"/>
+      <c r="AX10" s="30"/>
+      <c r="AY10" s="30"/>
+      <c r="AZ10" s="30"/>
+      <c r="BA10" s="30"/>
+      <c r="BB10" s="30"/>
+      <c r="BC10" s="30"/>
+      <c r="BD10" s="30"/>
+      <c r="BE10" s="30"/>
+      <c r="BF10" s="30"/>
+      <c r="BG10" s="30"/>
+      <c r="BH10" s="30"/>
+      <c r="BI10" s="30"/>
+      <c r="BJ10" s="30"/>
+      <c r="BK10" s="30"/>
+      <c r="BL10" s="30"/>
+      <c r="BM10" s="30"/>
+      <c r="BN10" s="30"/>
+      <c r="BO10" s="30"/>
+      <c r="BP10" s="30"/>
+      <c r="BQ10" s="30"/>
+      <c r="BR10" s="30"/>
+      <c r="BS10" s="30"/>
+      <c r="BT10" s="30"/>
+      <c r="BU10" s="30"/>
+      <c r="BV10" s="30"/>
       <c r="BW10" s="3" t="s">
         <v>55</v>
       </c>
@@ -3809,39 +3809,39 @@
       </c>
       <c r="BZ10" s="5"/>
       <c r="CA10" s="5"/>
-      <c r="CB10" s="20"/>
+      <c r="CB10" s="30"/>
     </row>
     <row r="11" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
       <c r="AC11" s="3" t="s">
         <v>56</v>
       </c>
@@ -3899,33 +3899,33 @@
       <c r="AU11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AV11" s="21"/>
-      <c r="AW11" s="21"/>
-      <c r="AX11" s="21"/>
-      <c r="AY11" s="21"/>
-      <c r="AZ11" s="21"/>
-      <c r="BA11" s="21"/>
-      <c r="BB11" s="21"/>
-      <c r="BC11" s="21"/>
-      <c r="BD11" s="21"/>
-      <c r="BE11" s="21"/>
-      <c r="BF11" s="21"/>
-      <c r="BG11" s="21"/>
-      <c r="BH11" s="21"/>
-      <c r="BI11" s="21"/>
-      <c r="BJ11" s="21"/>
-      <c r="BK11" s="21"/>
-      <c r="BL11" s="21"/>
-      <c r="BM11" s="21"/>
-      <c r="BN11" s="21"/>
-      <c r="BO11" s="21"/>
-      <c r="BP11" s="21"/>
-      <c r="BQ11" s="21"/>
-      <c r="BR11" s="21"/>
-      <c r="BS11" s="21"/>
-      <c r="BT11" s="21"/>
-      <c r="BU11" s="21"/>
-      <c r="BV11" s="21"/>
+      <c r="AV11" s="22"/>
+      <c r="AW11" s="22"/>
+      <c r="AX11" s="22"/>
+      <c r="AY11" s="22"/>
+      <c r="AZ11" s="22"/>
+      <c r="BA11" s="22"/>
+      <c r="BB11" s="22"/>
+      <c r="BC11" s="22"/>
+      <c r="BD11" s="22"/>
+      <c r="BE11" s="22"/>
+      <c r="BF11" s="22"/>
+      <c r="BG11" s="22"/>
+      <c r="BH11" s="22"/>
+      <c r="BI11" s="22"/>
+      <c r="BJ11" s="22"/>
+      <c r="BK11" s="22"/>
+      <c r="BL11" s="22"/>
+      <c r="BM11" s="22"/>
+      <c r="BN11" s="22"/>
+      <c r="BO11" s="22"/>
+      <c r="BP11" s="22"/>
+      <c r="BQ11" s="22"/>
+      <c r="BR11" s="22"/>
+      <c r="BS11" s="22"/>
+      <c r="BT11" s="22"/>
+      <c r="BU11" s="22"/>
+      <c r="BV11" s="22"/>
       <c r="BW11" s="3" t="s">
         <v>56</v>
       </c>
@@ -3941,39 +3941,39 @@
       <c r="CA11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="CB11" s="21"/>
+      <c r="CB11" s="22"/>
     </row>
     <row r="12" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="3" t="s">
         <v>55</v>
@@ -4023,33 +4023,33 @@
         <v>55</v>
       </c>
       <c r="AU12" s="5"/>
-      <c r="AV12" s="20"/>
-      <c r="AW12" s="20"/>
-      <c r="AX12" s="20"/>
-      <c r="AY12" s="20"/>
-      <c r="AZ12" s="20"/>
-      <c r="BA12" s="20"/>
-      <c r="BB12" s="20"/>
-      <c r="BC12" s="20"/>
-      <c r="BD12" s="20"/>
-      <c r="BE12" s="20"/>
-      <c r="BF12" s="20"/>
-      <c r="BG12" s="20"/>
-      <c r="BH12" s="20"/>
-      <c r="BI12" s="20"/>
-      <c r="BJ12" s="20"/>
-      <c r="BK12" s="20"/>
-      <c r="BL12" s="20"/>
-      <c r="BM12" s="20"/>
-      <c r="BN12" s="20"/>
-      <c r="BO12" s="20"/>
-      <c r="BP12" s="20"/>
-      <c r="BQ12" s="20"/>
-      <c r="BR12" s="20"/>
-      <c r="BS12" s="20"/>
-      <c r="BT12" s="20"/>
-      <c r="BU12" s="20"/>
-      <c r="BV12" s="20"/>
+      <c r="AV12" s="30"/>
+      <c r="AW12" s="30"/>
+      <c r="AX12" s="30"/>
+      <c r="AY12" s="30"/>
+      <c r="AZ12" s="30"/>
+      <c r="BA12" s="30"/>
+      <c r="BB12" s="30"/>
+      <c r="BC12" s="30"/>
+      <c r="BD12" s="30"/>
+      <c r="BE12" s="30"/>
+      <c r="BF12" s="30"/>
+      <c r="BG12" s="30"/>
+      <c r="BH12" s="30"/>
+      <c r="BI12" s="30"/>
+      <c r="BJ12" s="30"/>
+      <c r="BK12" s="30"/>
+      <c r="BL12" s="30"/>
+      <c r="BM12" s="30"/>
+      <c r="BN12" s="30"/>
+      <c r="BO12" s="30"/>
+      <c r="BP12" s="30"/>
+      <c r="BQ12" s="30"/>
+      <c r="BR12" s="30"/>
+      <c r="BS12" s="30"/>
+      <c r="BT12" s="30"/>
+      <c r="BU12" s="30"/>
+      <c r="BV12" s="30"/>
       <c r="BW12" s="3" t="s">
         <v>55</v>
       </c>
@@ -4061,39 +4061,39 @@
       </c>
       <c r="BZ12" s="5"/>
       <c r="CA12" s="5"/>
-      <c r="CB12" s="20"/>
+      <c r="CB12" s="30"/>
     </row>
     <row r="13" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
       <c r="AC13" s="3" t="s">
         <v>56</v>
       </c>
@@ -4151,33 +4151,33 @@
       <c r="AU13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AV13" s="21"/>
-      <c r="AW13" s="21"/>
-      <c r="AX13" s="21"/>
-      <c r="AY13" s="21"/>
-      <c r="AZ13" s="21"/>
-      <c r="BA13" s="21"/>
-      <c r="BB13" s="21"/>
-      <c r="BC13" s="21"/>
-      <c r="BD13" s="21"/>
-      <c r="BE13" s="21"/>
-      <c r="BF13" s="21"/>
-      <c r="BG13" s="21"/>
-      <c r="BH13" s="21"/>
-      <c r="BI13" s="21"/>
-      <c r="BJ13" s="21"/>
-      <c r="BK13" s="21"/>
-      <c r="BL13" s="21"/>
-      <c r="BM13" s="21"/>
-      <c r="BN13" s="21"/>
-      <c r="BO13" s="21"/>
-      <c r="BP13" s="21"/>
-      <c r="BQ13" s="21"/>
-      <c r="BR13" s="21"/>
-      <c r="BS13" s="21"/>
-      <c r="BT13" s="21"/>
-      <c r="BU13" s="21"/>
-      <c r="BV13" s="21"/>
+      <c r="AV13" s="22"/>
+      <c r="AW13" s="22"/>
+      <c r="AX13" s="22"/>
+      <c r="AY13" s="22"/>
+      <c r="AZ13" s="22"/>
+      <c r="BA13" s="22"/>
+      <c r="BB13" s="22"/>
+      <c r="BC13" s="22"/>
+      <c r="BD13" s="22"/>
+      <c r="BE13" s="22"/>
+      <c r="BF13" s="22"/>
+      <c r="BG13" s="22"/>
+      <c r="BH13" s="22"/>
+      <c r="BI13" s="22"/>
+      <c r="BJ13" s="22"/>
+      <c r="BK13" s="22"/>
+      <c r="BL13" s="22"/>
+      <c r="BM13" s="22"/>
+      <c r="BN13" s="22"/>
+      <c r="BO13" s="22"/>
+      <c r="BP13" s="22"/>
+      <c r="BQ13" s="22"/>
+      <c r="BR13" s="22"/>
+      <c r="BS13" s="22"/>
+      <c r="BT13" s="22"/>
+      <c r="BU13" s="22"/>
+      <c r="BV13" s="22"/>
       <c r="BW13" s="3" t="s">
         <v>56</v>
       </c>
@@ -4193,39 +4193,39 @@
       <c r="CA13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="CB13" s="21"/>
+      <c r="CB13" s="22"/>
     </row>
     <row r="14" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="3" t="s">
         <v>55</v>
@@ -4275,33 +4275,33 @@
         <v>55</v>
       </c>
       <c r="AU14" s="5"/>
-      <c r="AV14" s="20"/>
-      <c r="AW14" s="20"/>
-      <c r="AX14" s="20"/>
-      <c r="AY14" s="20"/>
-      <c r="AZ14" s="20"/>
-      <c r="BA14" s="20"/>
-      <c r="BB14" s="20"/>
-      <c r="BC14" s="20"/>
-      <c r="BD14" s="20"/>
-      <c r="BE14" s="20"/>
-      <c r="BF14" s="20"/>
-      <c r="BG14" s="20"/>
-      <c r="BH14" s="20"/>
-      <c r="BI14" s="20"/>
-      <c r="BJ14" s="20"/>
-      <c r="BK14" s="20"/>
-      <c r="BL14" s="20"/>
-      <c r="BM14" s="20"/>
-      <c r="BN14" s="20"/>
-      <c r="BO14" s="20"/>
-      <c r="BP14" s="20"/>
-      <c r="BQ14" s="20"/>
-      <c r="BR14" s="20"/>
-      <c r="BS14" s="20"/>
-      <c r="BT14" s="20"/>
-      <c r="BU14" s="20"/>
-      <c r="BV14" s="20"/>
+      <c r="AV14" s="30"/>
+      <c r="AW14" s="30"/>
+      <c r="AX14" s="30"/>
+      <c r="AY14" s="30"/>
+      <c r="AZ14" s="30"/>
+      <c r="BA14" s="30"/>
+      <c r="BB14" s="30"/>
+      <c r="BC14" s="30"/>
+      <c r="BD14" s="30"/>
+      <c r="BE14" s="30"/>
+      <c r="BF14" s="30"/>
+      <c r="BG14" s="30"/>
+      <c r="BH14" s="30"/>
+      <c r="BI14" s="30"/>
+      <c r="BJ14" s="30"/>
+      <c r="BK14" s="30"/>
+      <c r="BL14" s="30"/>
+      <c r="BM14" s="30"/>
+      <c r="BN14" s="30"/>
+      <c r="BO14" s="30"/>
+      <c r="BP14" s="30"/>
+      <c r="BQ14" s="30"/>
+      <c r="BR14" s="30"/>
+      <c r="BS14" s="30"/>
+      <c r="BT14" s="30"/>
+      <c r="BU14" s="30"/>
+      <c r="BV14" s="30"/>
       <c r="BW14" s="3" t="s">
         <v>55</v>
       </c>
@@ -4313,39 +4313,39 @@
       </c>
       <c r="BZ14" s="5"/>
       <c r="CA14" s="5"/>
-      <c r="CB14" s="20"/>
+      <c r="CB14" s="30"/>
     </row>
     <row r="15" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
       <c r="AC15" s="3" t="s">
         <v>56</v>
       </c>
@@ -4403,33 +4403,33 @@
       <c r="AU15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AV15" s="21"/>
-      <c r="AW15" s="21"/>
-      <c r="AX15" s="21"/>
-      <c r="AY15" s="21"/>
-      <c r="AZ15" s="21"/>
-      <c r="BA15" s="21"/>
-      <c r="BB15" s="21"/>
-      <c r="BC15" s="21"/>
-      <c r="BD15" s="21"/>
-      <c r="BE15" s="21"/>
-      <c r="BF15" s="21"/>
-      <c r="BG15" s="21"/>
-      <c r="BH15" s="21"/>
-      <c r="BI15" s="21"/>
-      <c r="BJ15" s="21"/>
-      <c r="BK15" s="21"/>
-      <c r="BL15" s="21"/>
-      <c r="BM15" s="21"/>
-      <c r="BN15" s="21"/>
-      <c r="BO15" s="21"/>
-      <c r="BP15" s="21"/>
-      <c r="BQ15" s="21"/>
-      <c r="BR15" s="21"/>
-      <c r="BS15" s="21"/>
-      <c r="BT15" s="21"/>
-      <c r="BU15" s="21"/>
-      <c r="BV15" s="21"/>
+      <c r="AV15" s="22"/>
+      <c r="AW15" s="22"/>
+      <c r="AX15" s="22"/>
+      <c r="AY15" s="22"/>
+      <c r="AZ15" s="22"/>
+      <c r="BA15" s="22"/>
+      <c r="BB15" s="22"/>
+      <c r="BC15" s="22"/>
+      <c r="BD15" s="22"/>
+      <c r="BE15" s="22"/>
+      <c r="BF15" s="22"/>
+      <c r="BG15" s="22"/>
+      <c r="BH15" s="22"/>
+      <c r="BI15" s="22"/>
+      <c r="BJ15" s="22"/>
+      <c r="BK15" s="22"/>
+      <c r="BL15" s="22"/>
+      <c r="BM15" s="22"/>
+      <c r="BN15" s="22"/>
+      <c r="BO15" s="22"/>
+      <c r="BP15" s="22"/>
+      <c r="BQ15" s="22"/>
+      <c r="BR15" s="22"/>
+      <c r="BS15" s="22"/>
+      <c r="BT15" s="22"/>
+      <c r="BU15" s="22"/>
+      <c r="BV15" s="22"/>
       <c r="BW15" s="3" t="s">
         <v>56</v>
       </c>
@@ -4445,39 +4445,39 @@
       <c r="CA15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="CB15" s="21"/>
+      <c r="CB15" s="22"/>
     </row>
     <row r="16" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="3" t="s">
         <v>55</v>
@@ -4527,33 +4527,33 @@
         <v>55</v>
       </c>
       <c r="AU16" s="5"/>
-      <c r="AV16" s="20"/>
-      <c r="AW16" s="20"/>
-      <c r="AX16" s="20"/>
-      <c r="AY16" s="20"/>
-      <c r="AZ16" s="20"/>
-      <c r="BA16" s="20"/>
-      <c r="BB16" s="20"/>
-      <c r="BC16" s="20"/>
-      <c r="BD16" s="20"/>
-      <c r="BE16" s="20"/>
-      <c r="BF16" s="20"/>
-      <c r="BG16" s="20"/>
-      <c r="BH16" s="20"/>
-      <c r="BI16" s="20"/>
-      <c r="BJ16" s="20"/>
-      <c r="BK16" s="20"/>
-      <c r="BL16" s="20"/>
-      <c r="BM16" s="20"/>
-      <c r="BN16" s="20"/>
-      <c r="BO16" s="20"/>
-      <c r="BP16" s="20"/>
-      <c r="BQ16" s="20"/>
-      <c r="BR16" s="20"/>
-      <c r="BS16" s="20"/>
-      <c r="BT16" s="20"/>
-      <c r="BU16" s="20"/>
-      <c r="BV16" s="20"/>
+      <c r="AV16" s="30"/>
+      <c r="AW16" s="30"/>
+      <c r="AX16" s="30"/>
+      <c r="AY16" s="30"/>
+      <c r="AZ16" s="30"/>
+      <c r="BA16" s="30"/>
+      <c r="BB16" s="30"/>
+      <c r="BC16" s="30"/>
+      <c r="BD16" s="30"/>
+      <c r="BE16" s="30"/>
+      <c r="BF16" s="30"/>
+      <c r="BG16" s="30"/>
+      <c r="BH16" s="30"/>
+      <c r="BI16" s="30"/>
+      <c r="BJ16" s="30"/>
+      <c r="BK16" s="30"/>
+      <c r="BL16" s="30"/>
+      <c r="BM16" s="30"/>
+      <c r="BN16" s="30"/>
+      <c r="BO16" s="30"/>
+      <c r="BP16" s="30"/>
+      <c r="BQ16" s="30"/>
+      <c r="BR16" s="30"/>
+      <c r="BS16" s="30"/>
+      <c r="BT16" s="30"/>
+      <c r="BU16" s="30"/>
+      <c r="BV16" s="30"/>
       <c r="BW16" s="3" t="s">
         <v>55</v>
       </c>
@@ -4565,39 +4565,39 @@
       </c>
       <c r="BZ16" s="5"/>
       <c r="CA16" s="5"/>
-      <c r="CB16" s="20"/>
+      <c r="CB16" s="30"/>
     </row>
     <row r="17" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
       <c r="AC17" s="3" t="s">
         <v>56</v>
       </c>
@@ -4655,33 +4655,33 @@
       <c r="AU17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AV17" s="21"/>
-      <c r="AW17" s="21"/>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="21"/>
-      <c r="AZ17" s="21"/>
-      <c r="BA17" s="21"/>
-      <c r="BB17" s="21"/>
-      <c r="BC17" s="21"/>
-      <c r="BD17" s="21"/>
-      <c r="BE17" s="21"/>
-      <c r="BF17" s="21"/>
-      <c r="BG17" s="21"/>
-      <c r="BH17" s="21"/>
-      <c r="BI17" s="21"/>
-      <c r="BJ17" s="21"/>
-      <c r="BK17" s="21"/>
-      <c r="BL17" s="21"/>
-      <c r="BM17" s="21"/>
-      <c r="BN17" s="21"/>
-      <c r="BO17" s="21"/>
-      <c r="BP17" s="21"/>
-      <c r="BQ17" s="21"/>
-      <c r="BR17" s="21"/>
-      <c r="BS17" s="21"/>
-      <c r="BT17" s="21"/>
-      <c r="BU17" s="21"/>
-      <c r="BV17" s="21"/>
+      <c r="AV17" s="22"/>
+      <c r="AW17" s="22"/>
+      <c r="AX17" s="22"/>
+      <c r="AY17" s="22"/>
+      <c r="AZ17" s="22"/>
+      <c r="BA17" s="22"/>
+      <c r="BB17" s="22"/>
+      <c r="BC17" s="22"/>
+      <c r="BD17" s="22"/>
+      <c r="BE17" s="22"/>
+      <c r="BF17" s="22"/>
+      <c r="BG17" s="22"/>
+      <c r="BH17" s="22"/>
+      <c r="BI17" s="22"/>
+      <c r="BJ17" s="22"/>
+      <c r="BK17" s="22"/>
+      <c r="BL17" s="22"/>
+      <c r="BM17" s="22"/>
+      <c r="BN17" s="22"/>
+      <c r="BO17" s="22"/>
+      <c r="BP17" s="22"/>
+      <c r="BQ17" s="22"/>
+      <c r="BR17" s="22"/>
+      <c r="BS17" s="22"/>
+      <c r="BT17" s="22"/>
+      <c r="BU17" s="22"/>
+      <c r="BV17" s="22"/>
       <c r="BW17" s="3" t="s">
         <v>56</v>
       </c>
@@ -4697,39 +4697,39 @@
       <c r="CA17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="CB17" s="21"/>
+      <c r="CB17" s="22"/>
     </row>
     <row r="18" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="3" t="s">
         <v>55</v>
@@ -4779,33 +4779,33 @@
         <v>55</v>
       </c>
       <c r="AU18" s="5"/>
-      <c r="AV18" s="20"/>
-      <c r="AW18" s="20"/>
-      <c r="AX18" s="20"/>
-      <c r="AY18" s="20"/>
-      <c r="AZ18" s="20"/>
-      <c r="BA18" s="20"/>
-      <c r="BB18" s="20"/>
-      <c r="BC18" s="20"/>
-      <c r="BD18" s="20"/>
-      <c r="BE18" s="20"/>
-      <c r="BF18" s="20"/>
-      <c r="BG18" s="20"/>
-      <c r="BH18" s="20"/>
-      <c r="BI18" s="20"/>
-      <c r="BJ18" s="20"/>
-      <c r="BK18" s="20"/>
-      <c r="BL18" s="20"/>
-      <c r="BM18" s="20"/>
-      <c r="BN18" s="20"/>
-      <c r="BO18" s="20"/>
-      <c r="BP18" s="20"/>
-      <c r="BQ18" s="20"/>
-      <c r="BR18" s="20"/>
-      <c r="BS18" s="20"/>
-      <c r="BT18" s="20"/>
-      <c r="BU18" s="20"/>
-      <c r="BV18" s="20"/>
+      <c r="AV18" s="30"/>
+      <c r="AW18" s="30"/>
+      <c r="AX18" s="30"/>
+      <c r="AY18" s="30"/>
+      <c r="AZ18" s="30"/>
+      <c r="BA18" s="30"/>
+      <c r="BB18" s="30"/>
+      <c r="BC18" s="30"/>
+      <c r="BD18" s="30"/>
+      <c r="BE18" s="30"/>
+      <c r="BF18" s="30"/>
+      <c r="BG18" s="30"/>
+      <c r="BH18" s="30"/>
+      <c r="BI18" s="30"/>
+      <c r="BJ18" s="30"/>
+      <c r="BK18" s="30"/>
+      <c r="BL18" s="30"/>
+      <c r="BM18" s="30"/>
+      <c r="BN18" s="30"/>
+      <c r="BO18" s="30"/>
+      <c r="BP18" s="30"/>
+      <c r="BQ18" s="30"/>
+      <c r="BR18" s="30"/>
+      <c r="BS18" s="30"/>
+      <c r="BT18" s="30"/>
+      <c r="BU18" s="30"/>
+      <c r="BV18" s="30"/>
       <c r="BW18" s="3" t="s">
         <v>55</v>
       </c>
@@ -4817,39 +4817,39 @@
       </c>
       <c r="BZ18" s="5"/>
       <c r="CA18" s="5"/>
-      <c r="CB18" s="20"/>
+      <c r="CB18" s="30"/>
     </row>
     <row r="19" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
       <c r="AC19" s="3" t="s">
         <v>56</v>
       </c>
@@ -4907,33 +4907,33 @@
       <c r="AU19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AV19" s="21"/>
-      <c r="AW19" s="21"/>
-      <c r="AX19" s="21"/>
-      <c r="AY19" s="21"/>
-      <c r="AZ19" s="21"/>
-      <c r="BA19" s="21"/>
-      <c r="BB19" s="21"/>
-      <c r="BC19" s="21"/>
-      <c r="BD19" s="21"/>
-      <c r="BE19" s="21"/>
-      <c r="BF19" s="21"/>
-      <c r="BG19" s="21"/>
-      <c r="BH19" s="21"/>
-      <c r="BI19" s="21"/>
-      <c r="BJ19" s="21"/>
-      <c r="BK19" s="21"/>
-      <c r="BL19" s="21"/>
-      <c r="BM19" s="21"/>
-      <c r="BN19" s="21"/>
-      <c r="BO19" s="21"/>
-      <c r="BP19" s="21"/>
-      <c r="BQ19" s="21"/>
-      <c r="BR19" s="21"/>
-      <c r="BS19" s="21"/>
-      <c r="BT19" s="21"/>
-      <c r="BU19" s="21"/>
-      <c r="BV19" s="21"/>
+      <c r="AV19" s="22"/>
+      <c r="AW19" s="22"/>
+      <c r="AX19" s="22"/>
+      <c r="AY19" s="22"/>
+      <c r="AZ19" s="22"/>
+      <c r="BA19" s="22"/>
+      <c r="BB19" s="22"/>
+      <c r="BC19" s="22"/>
+      <c r="BD19" s="22"/>
+      <c r="BE19" s="22"/>
+      <c r="BF19" s="22"/>
+      <c r="BG19" s="22"/>
+      <c r="BH19" s="22"/>
+      <c r="BI19" s="22"/>
+      <c r="BJ19" s="22"/>
+      <c r="BK19" s="22"/>
+      <c r="BL19" s="22"/>
+      <c r="BM19" s="22"/>
+      <c r="BN19" s="22"/>
+      <c r="BO19" s="22"/>
+      <c r="BP19" s="22"/>
+      <c r="BQ19" s="22"/>
+      <c r="BR19" s="22"/>
+      <c r="BS19" s="22"/>
+      <c r="BT19" s="22"/>
+      <c r="BU19" s="22"/>
+      <c r="BV19" s="22"/>
       <c r="BW19" s="3" t="s">
         <v>56</v>
       </c>
@@ -4949,39 +4949,39 @@
       <c r="CA19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="CB19" s="21"/>
+      <c r="CB19" s="22"/>
     </row>
     <row r="20" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="3" t="s">
         <v>55</v>
@@ -5031,33 +5031,33 @@
         <v>55</v>
       </c>
       <c r="AU20" s="5"/>
-      <c r="AV20" s="20"/>
-      <c r="AW20" s="20"/>
-      <c r="AX20" s="20"/>
-      <c r="AY20" s="20"/>
-      <c r="AZ20" s="20"/>
-      <c r="BA20" s="20"/>
-      <c r="BB20" s="20"/>
-      <c r="BC20" s="20"/>
-      <c r="BD20" s="20"/>
-      <c r="BE20" s="20"/>
-      <c r="BF20" s="20"/>
-      <c r="BG20" s="20"/>
-      <c r="BH20" s="20"/>
-      <c r="BI20" s="20"/>
-      <c r="BJ20" s="20"/>
-      <c r="BK20" s="20"/>
-      <c r="BL20" s="20"/>
-      <c r="BM20" s="20"/>
-      <c r="BN20" s="20"/>
-      <c r="BO20" s="20"/>
-      <c r="BP20" s="20"/>
-      <c r="BQ20" s="20"/>
-      <c r="BR20" s="20"/>
-      <c r="BS20" s="20"/>
-      <c r="BT20" s="20"/>
-      <c r="BU20" s="20"/>
-      <c r="BV20" s="20"/>
+      <c r="AV20" s="30"/>
+      <c r="AW20" s="30"/>
+      <c r="AX20" s="30"/>
+      <c r="AY20" s="30"/>
+      <c r="AZ20" s="30"/>
+      <c r="BA20" s="30"/>
+      <c r="BB20" s="30"/>
+      <c r="BC20" s="30"/>
+      <c r="BD20" s="30"/>
+      <c r="BE20" s="30"/>
+      <c r="BF20" s="30"/>
+      <c r="BG20" s="30"/>
+      <c r="BH20" s="30"/>
+      <c r="BI20" s="30"/>
+      <c r="BJ20" s="30"/>
+      <c r="BK20" s="30"/>
+      <c r="BL20" s="30"/>
+      <c r="BM20" s="30"/>
+      <c r="BN20" s="30"/>
+      <c r="BO20" s="30"/>
+      <c r="BP20" s="30"/>
+      <c r="BQ20" s="30"/>
+      <c r="BR20" s="30"/>
+      <c r="BS20" s="30"/>
+      <c r="BT20" s="30"/>
+      <c r="BU20" s="30"/>
+      <c r="BV20" s="30"/>
       <c r="BW20" s="3" t="s">
         <v>55</v>
       </c>
@@ -5069,39 +5069,39 @@
       </c>
       <c r="BZ20" s="5"/>
       <c r="CA20" s="5"/>
-      <c r="CB20" s="20"/>
+      <c r="CB20" s="30"/>
     </row>
     <row r="21" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
       <c r="AC21" s="3" t="s">
         <v>56</v>
       </c>
@@ -5159,33 +5159,33 @@
       <c r="AU21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AV21" s="21"/>
-      <c r="AW21" s="21"/>
-      <c r="AX21" s="21"/>
-      <c r="AY21" s="21"/>
-      <c r="AZ21" s="21"/>
-      <c r="BA21" s="21"/>
-      <c r="BB21" s="21"/>
-      <c r="BC21" s="21"/>
-      <c r="BD21" s="21"/>
-      <c r="BE21" s="21"/>
-      <c r="BF21" s="21"/>
-      <c r="BG21" s="21"/>
-      <c r="BH21" s="21"/>
-      <c r="BI21" s="21"/>
-      <c r="BJ21" s="21"/>
-      <c r="BK21" s="21"/>
-      <c r="BL21" s="21"/>
-      <c r="BM21" s="21"/>
-      <c r="BN21" s="21"/>
-      <c r="BO21" s="21"/>
-      <c r="BP21" s="21"/>
-      <c r="BQ21" s="21"/>
-      <c r="BR21" s="21"/>
-      <c r="BS21" s="21"/>
-      <c r="BT21" s="21"/>
-      <c r="BU21" s="21"/>
-      <c r="BV21" s="21"/>
+      <c r="AV21" s="22"/>
+      <c r="AW21" s="22"/>
+      <c r="AX21" s="22"/>
+      <c r="AY21" s="22"/>
+      <c r="AZ21" s="22"/>
+      <c r="BA21" s="22"/>
+      <c r="BB21" s="22"/>
+      <c r="BC21" s="22"/>
+      <c r="BD21" s="22"/>
+      <c r="BE21" s="22"/>
+      <c r="BF21" s="22"/>
+      <c r="BG21" s="22"/>
+      <c r="BH21" s="22"/>
+      <c r="BI21" s="22"/>
+      <c r="BJ21" s="22"/>
+      <c r="BK21" s="22"/>
+      <c r="BL21" s="22"/>
+      <c r="BM21" s="22"/>
+      <c r="BN21" s="22"/>
+      <c r="BO21" s="22"/>
+      <c r="BP21" s="22"/>
+      <c r="BQ21" s="22"/>
+      <c r="BR21" s="22"/>
+      <c r="BS21" s="22"/>
+      <c r="BT21" s="22"/>
+      <c r="BU21" s="22"/>
+      <c r="BV21" s="22"/>
       <c r="BW21" s="3" t="s">
         <v>56</v>
       </c>
@@ -5201,39 +5201,39 @@
       <c r="CA21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="CB21" s="21"/>
+      <c r="CB21" s="22"/>
     </row>
     <row r="22" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="3" t="s">
         <v>55</v>
@@ -5283,33 +5283,33 @@
         <v>55</v>
       </c>
       <c r="AU22" s="5"/>
-      <c r="AV22" s="20"/>
-      <c r="AW22" s="20"/>
-      <c r="AX22" s="20"/>
-      <c r="AY22" s="20"/>
-      <c r="AZ22" s="20"/>
-      <c r="BA22" s="20"/>
-      <c r="BB22" s="20"/>
-      <c r="BC22" s="20"/>
-      <c r="BD22" s="20"/>
-      <c r="BE22" s="20"/>
-      <c r="BF22" s="20"/>
-      <c r="BG22" s="20"/>
-      <c r="BH22" s="20"/>
-      <c r="BI22" s="20"/>
-      <c r="BJ22" s="20"/>
-      <c r="BK22" s="20"/>
-      <c r="BL22" s="20"/>
-      <c r="BM22" s="20"/>
-      <c r="BN22" s="20"/>
-      <c r="BO22" s="20"/>
-      <c r="BP22" s="20"/>
-      <c r="BQ22" s="20"/>
-      <c r="BR22" s="20"/>
-      <c r="BS22" s="20"/>
-      <c r="BT22" s="20"/>
-      <c r="BU22" s="20"/>
-      <c r="BV22" s="20"/>
+      <c r="AV22" s="30"/>
+      <c r="AW22" s="30"/>
+      <c r="AX22" s="30"/>
+      <c r="AY22" s="30"/>
+      <c r="AZ22" s="30"/>
+      <c r="BA22" s="30"/>
+      <c r="BB22" s="30"/>
+      <c r="BC22" s="30"/>
+      <c r="BD22" s="30"/>
+      <c r="BE22" s="30"/>
+      <c r="BF22" s="30"/>
+      <c r="BG22" s="30"/>
+      <c r="BH22" s="30"/>
+      <c r="BI22" s="30"/>
+      <c r="BJ22" s="30"/>
+      <c r="BK22" s="30"/>
+      <c r="BL22" s="30"/>
+      <c r="BM22" s="30"/>
+      <c r="BN22" s="30"/>
+      <c r="BO22" s="30"/>
+      <c r="BP22" s="30"/>
+      <c r="BQ22" s="30"/>
+      <c r="BR22" s="30"/>
+      <c r="BS22" s="30"/>
+      <c r="BT22" s="30"/>
+      <c r="BU22" s="30"/>
+      <c r="BV22" s="30"/>
       <c r="BW22" s="3" t="s">
         <v>55</v>
       </c>
@@ -5321,39 +5321,39 @@
       </c>
       <c r="BZ22" s="5"/>
       <c r="CA22" s="5"/>
-      <c r="CB22" s="20"/>
+      <c r="CB22" s="30"/>
     </row>
     <row r="23" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
       <c r="AC23" s="3" t="s">
         <v>56</v>
       </c>
@@ -5411,33 +5411,33 @@
       <c r="AU23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AV23" s="21"/>
-      <c r="AW23" s="21"/>
-      <c r="AX23" s="21"/>
-      <c r="AY23" s="21"/>
-      <c r="AZ23" s="21"/>
-      <c r="BA23" s="21"/>
-      <c r="BB23" s="21"/>
-      <c r="BC23" s="21"/>
-      <c r="BD23" s="21"/>
-      <c r="BE23" s="21"/>
-      <c r="BF23" s="21"/>
-      <c r="BG23" s="21"/>
-      <c r="BH23" s="21"/>
-      <c r="BI23" s="21"/>
-      <c r="BJ23" s="21"/>
-      <c r="BK23" s="21"/>
-      <c r="BL23" s="21"/>
-      <c r="BM23" s="21"/>
-      <c r="BN23" s="21"/>
-      <c r="BO23" s="21"/>
-      <c r="BP23" s="21"/>
-      <c r="BQ23" s="21"/>
-      <c r="BR23" s="21"/>
-      <c r="BS23" s="21"/>
-      <c r="BT23" s="21"/>
-      <c r="BU23" s="21"/>
-      <c r="BV23" s="21"/>
+      <c r="AV23" s="22"/>
+      <c r="AW23" s="22"/>
+      <c r="AX23" s="22"/>
+      <c r="AY23" s="22"/>
+      <c r="AZ23" s="22"/>
+      <c r="BA23" s="22"/>
+      <c r="BB23" s="22"/>
+      <c r="BC23" s="22"/>
+      <c r="BD23" s="22"/>
+      <c r="BE23" s="22"/>
+      <c r="BF23" s="22"/>
+      <c r="BG23" s="22"/>
+      <c r="BH23" s="22"/>
+      <c r="BI23" s="22"/>
+      <c r="BJ23" s="22"/>
+      <c r="BK23" s="22"/>
+      <c r="BL23" s="22"/>
+      <c r="BM23" s="22"/>
+      <c r="BN23" s="22"/>
+      <c r="BO23" s="22"/>
+      <c r="BP23" s="22"/>
+      <c r="BQ23" s="22"/>
+      <c r="BR23" s="22"/>
+      <c r="BS23" s="22"/>
+      <c r="BT23" s="22"/>
+      <c r="BU23" s="22"/>
+      <c r="BV23" s="22"/>
       <c r="BW23" s="3" t="s">
         <v>56</v>
       </c>
@@ -5453,39 +5453,39 @@
       <c r="CA23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="CB23" s="21"/>
+      <c r="CB23" s="22"/>
     </row>
     <row r="24" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="3" t="s">
         <v>55</v>
@@ -5535,33 +5535,33 @@
         <v>55</v>
       </c>
       <c r="AU24" s="5"/>
-      <c r="AV24" s="20"/>
-      <c r="AW24" s="20"/>
-      <c r="AX24" s="20"/>
-      <c r="AY24" s="20"/>
-      <c r="AZ24" s="20"/>
-      <c r="BA24" s="20"/>
-      <c r="BB24" s="20"/>
-      <c r="BC24" s="20"/>
-      <c r="BD24" s="20"/>
-      <c r="BE24" s="20"/>
-      <c r="BF24" s="20"/>
-      <c r="BG24" s="20"/>
-      <c r="BH24" s="20"/>
-      <c r="BI24" s="20"/>
-      <c r="BJ24" s="20"/>
-      <c r="BK24" s="20"/>
-      <c r="BL24" s="20"/>
-      <c r="BM24" s="20"/>
-      <c r="BN24" s="20"/>
-      <c r="BO24" s="20"/>
-      <c r="BP24" s="20"/>
-      <c r="BQ24" s="20"/>
-      <c r="BR24" s="20"/>
-      <c r="BS24" s="20"/>
-      <c r="BT24" s="20"/>
-      <c r="BU24" s="20"/>
-      <c r="BV24" s="20"/>
+      <c r="AV24" s="30"/>
+      <c r="AW24" s="30"/>
+      <c r="AX24" s="30"/>
+      <c r="AY24" s="30"/>
+      <c r="AZ24" s="30"/>
+      <c r="BA24" s="30"/>
+      <c r="BB24" s="30"/>
+      <c r="BC24" s="30"/>
+      <c r="BD24" s="30"/>
+      <c r="BE24" s="30"/>
+      <c r="BF24" s="30"/>
+      <c r="BG24" s="30"/>
+      <c r="BH24" s="30"/>
+      <c r="BI24" s="30"/>
+      <c r="BJ24" s="30"/>
+      <c r="BK24" s="30"/>
+      <c r="BL24" s="30"/>
+      <c r="BM24" s="30"/>
+      <c r="BN24" s="30"/>
+      <c r="BO24" s="30"/>
+      <c r="BP24" s="30"/>
+      <c r="BQ24" s="30"/>
+      <c r="BR24" s="30"/>
+      <c r="BS24" s="30"/>
+      <c r="BT24" s="30"/>
+      <c r="BU24" s="30"/>
+      <c r="BV24" s="30"/>
       <c r="BW24" s="3" t="s">
         <v>55</v>
       </c>
@@ -5573,39 +5573,39 @@
       </c>
       <c r="BZ24" s="5"/>
       <c r="CA24" s="5"/>
-      <c r="CB24" s="20"/>
+      <c r="CB24" s="30"/>
     </row>
     <row r="25" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
       <c r="AC25" s="3" t="s">
         <v>56</v>
       </c>
@@ -5663,33 +5663,33 @@
       <c r="AU25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AV25" s="21"/>
-      <c r="AW25" s="21"/>
-      <c r="AX25" s="21"/>
-      <c r="AY25" s="21"/>
-      <c r="AZ25" s="21"/>
-      <c r="BA25" s="21"/>
-      <c r="BB25" s="21"/>
-      <c r="BC25" s="21"/>
-      <c r="BD25" s="21"/>
-      <c r="BE25" s="21"/>
-      <c r="BF25" s="21"/>
-      <c r="BG25" s="21"/>
-      <c r="BH25" s="21"/>
-      <c r="BI25" s="21"/>
-      <c r="BJ25" s="21"/>
-      <c r="BK25" s="21"/>
-      <c r="BL25" s="21"/>
-      <c r="BM25" s="21"/>
-      <c r="BN25" s="21"/>
-      <c r="BO25" s="21"/>
-      <c r="BP25" s="21"/>
-      <c r="BQ25" s="21"/>
-      <c r="BR25" s="21"/>
-      <c r="BS25" s="21"/>
-      <c r="BT25" s="21"/>
-      <c r="BU25" s="21"/>
-      <c r="BV25" s="21"/>
+      <c r="AV25" s="22"/>
+      <c r="AW25" s="22"/>
+      <c r="AX25" s="22"/>
+      <c r="AY25" s="22"/>
+      <c r="AZ25" s="22"/>
+      <c r="BA25" s="22"/>
+      <c r="BB25" s="22"/>
+      <c r="BC25" s="22"/>
+      <c r="BD25" s="22"/>
+      <c r="BE25" s="22"/>
+      <c r="BF25" s="22"/>
+      <c r="BG25" s="22"/>
+      <c r="BH25" s="22"/>
+      <c r="BI25" s="22"/>
+      <c r="BJ25" s="22"/>
+      <c r="BK25" s="22"/>
+      <c r="BL25" s="22"/>
+      <c r="BM25" s="22"/>
+      <c r="BN25" s="22"/>
+      <c r="BO25" s="22"/>
+      <c r="BP25" s="22"/>
+      <c r="BQ25" s="22"/>
+      <c r="BR25" s="22"/>
+      <c r="BS25" s="22"/>
+      <c r="BT25" s="22"/>
+      <c r="BU25" s="22"/>
+      <c r="BV25" s="22"/>
       <c r="BW25" s="3" t="s">
         <v>56</v>
       </c>
@@ -5705,39 +5705,39 @@
       <c r="CA25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="CB25" s="21"/>
+      <c r="CB25" s="22"/>
     </row>
     <row r="26" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="3" t="s">
         <v>55</v>
@@ -5787,33 +5787,33 @@
         <v>55</v>
       </c>
       <c r="AU26" s="5"/>
-      <c r="AV26" s="20"/>
-      <c r="AW26" s="20"/>
-      <c r="AX26" s="20"/>
-      <c r="AY26" s="20"/>
-      <c r="AZ26" s="20"/>
-      <c r="BA26" s="20"/>
-      <c r="BB26" s="20"/>
-      <c r="BC26" s="20"/>
-      <c r="BD26" s="20"/>
-      <c r="BE26" s="20"/>
-      <c r="BF26" s="20"/>
-      <c r="BG26" s="20"/>
-      <c r="BH26" s="20"/>
-      <c r="BI26" s="20"/>
-      <c r="BJ26" s="20"/>
-      <c r="BK26" s="20"/>
-      <c r="BL26" s="20"/>
-      <c r="BM26" s="20"/>
-      <c r="BN26" s="20"/>
-      <c r="BO26" s="20"/>
-      <c r="BP26" s="20"/>
-      <c r="BQ26" s="20"/>
-      <c r="BR26" s="20"/>
-      <c r="BS26" s="20"/>
-      <c r="BT26" s="20"/>
-      <c r="BU26" s="20"/>
-      <c r="BV26" s="20"/>
+      <c r="AV26" s="30"/>
+      <c r="AW26" s="30"/>
+      <c r="AX26" s="30"/>
+      <c r="AY26" s="30"/>
+      <c r="AZ26" s="30"/>
+      <c r="BA26" s="30"/>
+      <c r="BB26" s="30"/>
+      <c r="BC26" s="30"/>
+      <c r="BD26" s="30"/>
+      <c r="BE26" s="30"/>
+      <c r="BF26" s="30"/>
+      <c r="BG26" s="30"/>
+      <c r="BH26" s="30"/>
+      <c r="BI26" s="30"/>
+      <c r="BJ26" s="30"/>
+      <c r="BK26" s="30"/>
+      <c r="BL26" s="30"/>
+      <c r="BM26" s="30"/>
+      <c r="BN26" s="30"/>
+      <c r="BO26" s="30"/>
+      <c r="BP26" s="30"/>
+      <c r="BQ26" s="30"/>
+      <c r="BR26" s="30"/>
+      <c r="BS26" s="30"/>
+      <c r="BT26" s="30"/>
+      <c r="BU26" s="30"/>
+      <c r="BV26" s="30"/>
       <c r="BW26" s="3" t="s">
         <v>55</v>
       </c>
@@ -5825,39 +5825,39 @@
       </c>
       <c r="BZ26" s="5"/>
       <c r="CA26" s="5"/>
-      <c r="CB26" s="20"/>
+      <c r="CB26" s="30"/>
     </row>
     <row r="27" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
       <c r="AC27" s="3" t="s">
         <v>56</v>
       </c>
@@ -5915,33 +5915,33 @@
       <c r="AU27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AV27" s="21"/>
-      <c r="AW27" s="21"/>
-      <c r="AX27" s="21"/>
-      <c r="AY27" s="21"/>
-      <c r="AZ27" s="21"/>
-      <c r="BA27" s="21"/>
-      <c r="BB27" s="21"/>
-      <c r="BC27" s="21"/>
-      <c r="BD27" s="21"/>
-      <c r="BE27" s="21"/>
-      <c r="BF27" s="21"/>
-      <c r="BG27" s="21"/>
-      <c r="BH27" s="21"/>
-      <c r="BI27" s="21"/>
-      <c r="BJ27" s="21"/>
-      <c r="BK27" s="21"/>
-      <c r="BL27" s="21"/>
-      <c r="BM27" s="21"/>
-      <c r="BN27" s="21"/>
-      <c r="BO27" s="21"/>
-      <c r="BP27" s="21"/>
-      <c r="BQ27" s="21"/>
-      <c r="BR27" s="21"/>
-      <c r="BS27" s="21"/>
-      <c r="BT27" s="21"/>
-      <c r="BU27" s="21"/>
-      <c r="BV27" s="21"/>
+      <c r="AV27" s="22"/>
+      <c r="AW27" s="22"/>
+      <c r="AX27" s="22"/>
+      <c r="AY27" s="22"/>
+      <c r="AZ27" s="22"/>
+      <c r="BA27" s="22"/>
+      <c r="BB27" s="22"/>
+      <c r="BC27" s="22"/>
+      <c r="BD27" s="22"/>
+      <c r="BE27" s="22"/>
+      <c r="BF27" s="22"/>
+      <c r="BG27" s="22"/>
+      <c r="BH27" s="22"/>
+      <c r="BI27" s="22"/>
+      <c r="BJ27" s="22"/>
+      <c r="BK27" s="22"/>
+      <c r="BL27" s="22"/>
+      <c r="BM27" s="22"/>
+      <c r="BN27" s="22"/>
+      <c r="BO27" s="22"/>
+      <c r="BP27" s="22"/>
+      <c r="BQ27" s="22"/>
+      <c r="BR27" s="22"/>
+      <c r="BS27" s="22"/>
+      <c r="BT27" s="22"/>
+      <c r="BU27" s="22"/>
+      <c r="BV27" s="22"/>
       <c r="BW27" s="3" t="s">
         <v>56</v>
       </c>
@@ -5957,39 +5957,39 @@
       <c r="CA27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="CB27" s="21"/>
+      <c r="CB27" s="22"/>
     </row>
     <row r="28" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="3" t="s">
         <v>55</v>
@@ -6039,33 +6039,33 @@
         <v>55</v>
       </c>
       <c r="AU28" s="5"/>
-      <c r="AV28" s="20"/>
-      <c r="AW28" s="20"/>
-      <c r="AX28" s="20"/>
-      <c r="AY28" s="20"/>
-      <c r="AZ28" s="20"/>
-      <c r="BA28" s="20"/>
-      <c r="BB28" s="20"/>
-      <c r="BC28" s="20"/>
-      <c r="BD28" s="20"/>
-      <c r="BE28" s="20"/>
-      <c r="BF28" s="20"/>
-      <c r="BG28" s="20"/>
-      <c r="BH28" s="20"/>
-      <c r="BI28" s="20"/>
-      <c r="BJ28" s="20"/>
-      <c r="BK28" s="20"/>
-      <c r="BL28" s="20"/>
-      <c r="BM28" s="20"/>
-      <c r="BN28" s="20"/>
-      <c r="BO28" s="20"/>
-      <c r="BP28" s="20"/>
-      <c r="BQ28" s="20"/>
-      <c r="BR28" s="20"/>
-      <c r="BS28" s="20"/>
-      <c r="BT28" s="20"/>
-      <c r="BU28" s="20"/>
-      <c r="BV28" s="20"/>
+      <c r="AV28" s="30"/>
+      <c r="AW28" s="30"/>
+      <c r="AX28" s="30"/>
+      <c r="AY28" s="30"/>
+      <c r="AZ28" s="30"/>
+      <c r="BA28" s="30"/>
+      <c r="BB28" s="30"/>
+      <c r="BC28" s="30"/>
+      <c r="BD28" s="30"/>
+      <c r="BE28" s="30"/>
+      <c r="BF28" s="30"/>
+      <c r="BG28" s="30"/>
+      <c r="BH28" s="30"/>
+      <c r="BI28" s="30"/>
+      <c r="BJ28" s="30"/>
+      <c r="BK28" s="30"/>
+      <c r="BL28" s="30"/>
+      <c r="BM28" s="30"/>
+      <c r="BN28" s="30"/>
+      <c r="BO28" s="30"/>
+      <c r="BP28" s="30"/>
+      <c r="BQ28" s="30"/>
+      <c r="BR28" s="30"/>
+      <c r="BS28" s="30"/>
+      <c r="BT28" s="30"/>
+      <c r="BU28" s="30"/>
+      <c r="BV28" s="30"/>
       <c r="BW28" s="3" t="s">
         <v>55</v>
       </c>
@@ -6077,39 +6077,39 @@
       </c>
       <c r="BZ28" s="5"/>
       <c r="CA28" s="5"/>
-      <c r="CB28" s="20"/>
+      <c r="CB28" s="30"/>
     </row>
     <row r="29" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
       <c r="H29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
       <c r="AC29" s="3" t="s">
         <v>56</v>
       </c>
@@ -6167,33 +6167,33 @@
       <c r="AU29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AV29" s="21"/>
-      <c r="AW29" s="21"/>
-      <c r="AX29" s="21"/>
-      <c r="AY29" s="21"/>
-      <c r="AZ29" s="21"/>
-      <c r="BA29" s="21"/>
-      <c r="BB29" s="21"/>
-      <c r="BC29" s="21"/>
-      <c r="BD29" s="21"/>
-      <c r="BE29" s="21"/>
-      <c r="BF29" s="21"/>
-      <c r="BG29" s="21"/>
-      <c r="BH29" s="21"/>
-      <c r="BI29" s="21"/>
-      <c r="BJ29" s="21"/>
-      <c r="BK29" s="21"/>
-      <c r="BL29" s="21"/>
-      <c r="BM29" s="21"/>
-      <c r="BN29" s="21"/>
-      <c r="BO29" s="21"/>
-      <c r="BP29" s="21"/>
-      <c r="BQ29" s="21"/>
-      <c r="BR29" s="21"/>
-      <c r="BS29" s="21"/>
-      <c r="BT29" s="21"/>
-      <c r="BU29" s="21"/>
-      <c r="BV29" s="21"/>
+      <c r="AV29" s="22"/>
+      <c r="AW29" s="22"/>
+      <c r="AX29" s="22"/>
+      <c r="AY29" s="22"/>
+      <c r="AZ29" s="22"/>
+      <c r="BA29" s="22"/>
+      <c r="BB29" s="22"/>
+      <c r="BC29" s="22"/>
+      <c r="BD29" s="22"/>
+      <c r="BE29" s="22"/>
+      <c r="BF29" s="22"/>
+      <c r="BG29" s="22"/>
+      <c r="BH29" s="22"/>
+      <c r="BI29" s="22"/>
+      <c r="BJ29" s="22"/>
+      <c r="BK29" s="22"/>
+      <c r="BL29" s="22"/>
+      <c r="BM29" s="22"/>
+      <c r="BN29" s="22"/>
+      <c r="BO29" s="22"/>
+      <c r="BP29" s="22"/>
+      <c r="BQ29" s="22"/>
+      <c r="BR29" s="22"/>
+      <c r="BS29" s="22"/>
+      <c r="BT29" s="22"/>
+      <c r="BU29" s="22"/>
+      <c r="BV29" s="22"/>
       <c r="BW29" s="3" t="s">
         <v>56</v>
       </c>
@@ -6209,39 +6209,39 @@
       <c r="CA29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="CB29" s="21"/>
+      <c r="CB29" s="22"/>
     </row>
     <row r="30" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="3" t="s">
         <v>55</v>
@@ -6291,33 +6291,33 @@
         <v>55</v>
       </c>
       <c r="AU30" s="5"/>
-      <c r="AV30" s="20"/>
-      <c r="AW30" s="20"/>
-      <c r="AX30" s="20"/>
-      <c r="AY30" s="20"/>
-      <c r="AZ30" s="20"/>
-      <c r="BA30" s="20"/>
-      <c r="BB30" s="20"/>
-      <c r="BC30" s="20"/>
-      <c r="BD30" s="20"/>
-      <c r="BE30" s="20"/>
-      <c r="BF30" s="20"/>
-      <c r="BG30" s="20"/>
-      <c r="BH30" s="20"/>
-      <c r="BI30" s="20"/>
-      <c r="BJ30" s="20"/>
-      <c r="BK30" s="20"/>
-      <c r="BL30" s="20"/>
-      <c r="BM30" s="20"/>
-      <c r="BN30" s="20"/>
-      <c r="BO30" s="20"/>
-      <c r="BP30" s="20"/>
-      <c r="BQ30" s="20"/>
-      <c r="BR30" s="20"/>
-      <c r="BS30" s="20"/>
-      <c r="BT30" s="20"/>
-      <c r="BU30" s="20"/>
-      <c r="BV30" s="20"/>
+      <c r="AV30" s="30"/>
+      <c r="AW30" s="30"/>
+      <c r="AX30" s="30"/>
+      <c r="AY30" s="30"/>
+      <c r="AZ30" s="30"/>
+      <c r="BA30" s="30"/>
+      <c r="BB30" s="30"/>
+      <c r="BC30" s="30"/>
+      <c r="BD30" s="30"/>
+      <c r="BE30" s="30"/>
+      <c r="BF30" s="30"/>
+      <c r="BG30" s="30"/>
+      <c r="BH30" s="30"/>
+      <c r="BI30" s="30"/>
+      <c r="BJ30" s="30"/>
+      <c r="BK30" s="30"/>
+      <c r="BL30" s="30"/>
+      <c r="BM30" s="30"/>
+      <c r="BN30" s="30"/>
+      <c r="BO30" s="30"/>
+      <c r="BP30" s="30"/>
+      <c r="BQ30" s="30"/>
+      <c r="BR30" s="30"/>
+      <c r="BS30" s="30"/>
+      <c r="BT30" s="30"/>
+      <c r="BU30" s="30"/>
+      <c r="BV30" s="30"/>
       <c r="BW30" s="3" t="s">
         <v>55</v>
       </c>
@@ -6329,39 +6329,39 @@
       </c>
       <c r="BZ30" s="5"/>
       <c r="CA30" s="5"/>
-      <c r="CB30" s="20"/>
+      <c r="CB30" s="30"/>
     </row>
     <row r="31" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
       <c r="AC31" s="3" t="s">
         <v>56</v>
       </c>
@@ -6419,33 +6419,33 @@
       <c r="AU31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AV31" s="21"/>
-      <c r="AW31" s="21"/>
-      <c r="AX31" s="21"/>
-      <c r="AY31" s="21"/>
-      <c r="AZ31" s="21"/>
-      <c r="BA31" s="21"/>
-      <c r="BB31" s="21"/>
-      <c r="BC31" s="21"/>
-      <c r="BD31" s="21"/>
-      <c r="BE31" s="21"/>
-      <c r="BF31" s="21"/>
-      <c r="BG31" s="21"/>
-      <c r="BH31" s="21"/>
-      <c r="BI31" s="21"/>
-      <c r="BJ31" s="21"/>
-      <c r="BK31" s="21"/>
-      <c r="BL31" s="21"/>
-      <c r="BM31" s="21"/>
-      <c r="BN31" s="21"/>
-      <c r="BO31" s="21"/>
-      <c r="BP31" s="21"/>
-      <c r="BQ31" s="21"/>
-      <c r="BR31" s="21"/>
-      <c r="BS31" s="21"/>
-      <c r="BT31" s="21"/>
-      <c r="BU31" s="21"/>
-      <c r="BV31" s="21"/>
+      <c r="AV31" s="22"/>
+      <c r="AW31" s="22"/>
+      <c r="AX31" s="22"/>
+      <c r="AY31" s="22"/>
+      <c r="AZ31" s="22"/>
+      <c r="BA31" s="22"/>
+      <c r="BB31" s="22"/>
+      <c r="BC31" s="22"/>
+      <c r="BD31" s="22"/>
+      <c r="BE31" s="22"/>
+      <c r="BF31" s="22"/>
+      <c r="BG31" s="22"/>
+      <c r="BH31" s="22"/>
+      <c r="BI31" s="22"/>
+      <c r="BJ31" s="22"/>
+      <c r="BK31" s="22"/>
+      <c r="BL31" s="22"/>
+      <c r="BM31" s="22"/>
+      <c r="BN31" s="22"/>
+      <c r="BO31" s="22"/>
+      <c r="BP31" s="22"/>
+      <c r="BQ31" s="22"/>
+      <c r="BR31" s="22"/>
+      <c r="BS31" s="22"/>
+      <c r="BT31" s="22"/>
+      <c r="BU31" s="22"/>
+      <c r="BV31" s="22"/>
       <c r="BW31" s="3" t="s">
         <v>56</v>
       </c>
@@ -6461,39 +6461,39 @@
       <c r="CA31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="CB31" s="21"/>
+      <c r="CB31" s="22"/>
     </row>
     <row r="32" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="3" t="s">
         <v>55</v>
@@ -6543,33 +6543,33 @@
         <v>55</v>
       </c>
       <c r="AU32" s="5"/>
-      <c r="AV32" s="20"/>
-      <c r="AW32" s="20"/>
-      <c r="AX32" s="20"/>
-      <c r="AY32" s="20"/>
-      <c r="AZ32" s="20"/>
-      <c r="BA32" s="20"/>
-      <c r="BB32" s="20"/>
-      <c r="BC32" s="20"/>
-      <c r="BD32" s="20"/>
-      <c r="BE32" s="20"/>
-      <c r="BF32" s="20"/>
-      <c r="BG32" s="20"/>
-      <c r="BH32" s="20"/>
-      <c r="BI32" s="20"/>
-      <c r="BJ32" s="20"/>
-      <c r="BK32" s="20"/>
-      <c r="BL32" s="20"/>
-      <c r="BM32" s="20"/>
-      <c r="BN32" s="20"/>
-      <c r="BO32" s="20"/>
-      <c r="BP32" s="20"/>
-      <c r="BQ32" s="20"/>
-      <c r="BR32" s="20"/>
-      <c r="BS32" s="20"/>
-      <c r="BT32" s="20"/>
-      <c r="BU32" s="20"/>
-      <c r="BV32" s="20"/>
+      <c r="AV32" s="30"/>
+      <c r="AW32" s="30"/>
+      <c r="AX32" s="30"/>
+      <c r="AY32" s="30"/>
+      <c r="AZ32" s="30"/>
+      <c r="BA32" s="30"/>
+      <c r="BB32" s="30"/>
+      <c r="BC32" s="30"/>
+      <c r="BD32" s="30"/>
+      <c r="BE32" s="30"/>
+      <c r="BF32" s="30"/>
+      <c r="BG32" s="30"/>
+      <c r="BH32" s="30"/>
+      <c r="BI32" s="30"/>
+      <c r="BJ32" s="30"/>
+      <c r="BK32" s="30"/>
+      <c r="BL32" s="30"/>
+      <c r="BM32" s="30"/>
+      <c r="BN32" s="30"/>
+      <c r="BO32" s="30"/>
+      <c r="BP32" s="30"/>
+      <c r="BQ32" s="30"/>
+      <c r="BR32" s="30"/>
+      <c r="BS32" s="30"/>
+      <c r="BT32" s="30"/>
+      <c r="BU32" s="30"/>
+      <c r="BV32" s="30"/>
       <c r="BW32" s="3" t="s">
         <v>55</v>
       </c>
@@ -6581,39 +6581,39 @@
       </c>
       <c r="BZ32" s="5"/>
       <c r="CA32" s="5"/>
-      <c r="CB32" s="20"/>
+      <c r="CB32" s="30"/>
     </row>
     <row r="33" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
       <c r="H33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
       <c r="AC33" s="3" t="s">
         <v>56</v>
       </c>
@@ -6671,33 +6671,33 @@
       <c r="AU33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AV33" s="21"/>
-      <c r="AW33" s="21"/>
-      <c r="AX33" s="21"/>
-      <c r="AY33" s="21"/>
-      <c r="AZ33" s="21"/>
-      <c r="BA33" s="21"/>
-      <c r="BB33" s="21"/>
-      <c r="BC33" s="21"/>
-      <c r="BD33" s="21"/>
-      <c r="BE33" s="21"/>
-      <c r="BF33" s="21"/>
-      <c r="BG33" s="21"/>
-      <c r="BH33" s="21"/>
-      <c r="BI33" s="21"/>
-      <c r="BJ33" s="21"/>
-      <c r="BK33" s="21"/>
-      <c r="BL33" s="21"/>
-      <c r="BM33" s="21"/>
-      <c r="BN33" s="21"/>
-      <c r="BO33" s="21"/>
-      <c r="BP33" s="21"/>
-      <c r="BQ33" s="21"/>
-      <c r="BR33" s="21"/>
-      <c r="BS33" s="21"/>
-      <c r="BT33" s="21"/>
-      <c r="BU33" s="21"/>
-      <c r="BV33" s="21"/>
+      <c r="AV33" s="22"/>
+      <c r="AW33" s="22"/>
+      <c r="AX33" s="22"/>
+      <c r="AY33" s="22"/>
+      <c r="AZ33" s="22"/>
+      <c r="BA33" s="22"/>
+      <c r="BB33" s="22"/>
+      <c r="BC33" s="22"/>
+      <c r="BD33" s="22"/>
+      <c r="BE33" s="22"/>
+      <c r="BF33" s="22"/>
+      <c r="BG33" s="22"/>
+      <c r="BH33" s="22"/>
+      <c r="BI33" s="22"/>
+      <c r="BJ33" s="22"/>
+      <c r="BK33" s="22"/>
+      <c r="BL33" s="22"/>
+      <c r="BM33" s="22"/>
+      <c r="BN33" s="22"/>
+      <c r="BO33" s="22"/>
+      <c r="BP33" s="22"/>
+      <c r="BQ33" s="22"/>
+      <c r="BR33" s="22"/>
+      <c r="BS33" s="22"/>
+      <c r="BT33" s="22"/>
+      <c r="BU33" s="22"/>
+      <c r="BV33" s="22"/>
       <c r="BW33" s="3" t="s">
         <v>56</v>
       </c>
@@ -6713,39 +6713,39 @@
       <c r="CA33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="CB33" s="21"/>
+      <c r="CB33" s="22"/>
     </row>
     <row r="34" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
       <c r="H34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="30"/>
+      <c r="AB34" s="30"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="3" t="s">
         <v>55</v>
@@ -6795,33 +6795,33 @@
         <v>55</v>
       </c>
       <c r="AU34" s="5"/>
-      <c r="AV34" s="20"/>
-      <c r="AW34" s="20"/>
-      <c r="AX34" s="20"/>
-      <c r="AY34" s="20"/>
-      <c r="AZ34" s="20"/>
-      <c r="BA34" s="20"/>
-      <c r="BB34" s="20"/>
-      <c r="BC34" s="20"/>
-      <c r="BD34" s="20"/>
-      <c r="BE34" s="20"/>
-      <c r="BF34" s="20"/>
-      <c r="BG34" s="20"/>
-      <c r="BH34" s="20"/>
-      <c r="BI34" s="20"/>
-      <c r="BJ34" s="20"/>
-      <c r="BK34" s="20"/>
-      <c r="BL34" s="20"/>
-      <c r="BM34" s="20"/>
-      <c r="BN34" s="20"/>
-      <c r="BO34" s="20"/>
-      <c r="BP34" s="20"/>
-      <c r="BQ34" s="20"/>
-      <c r="BR34" s="20"/>
-      <c r="BS34" s="20"/>
-      <c r="BT34" s="20"/>
-      <c r="BU34" s="20"/>
-      <c r="BV34" s="20"/>
+      <c r="AV34" s="30"/>
+      <c r="AW34" s="30"/>
+      <c r="AX34" s="30"/>
+      <c r="AY34" s="30"/>
+      <c r="AZ34" s="30"/>
+      <c r="BA34" s="30"/>
+      <c r="BB34" s="30"/>
+      <c r="BC34" s="30"/>
+      <c r="BD34" s="30"/>
+      <c r="BE34" s="30"/>
+      <c r="BF34" s="30"/>
+      <c r="BG34" s="30"/>
+      <c r="BH34" s="30"/>
+      <c r="BI34" s="30"/>
+      <c r="BJ34" s="30"/>
+      <c r="BK34" s="30"/>
+      <c r="BL34" s="30"/>
+      <c r="BM34" s="30"/>
+      <c r="BN34" s="30"/>
+      <c r="BO34" s="30"/>
+      <c r="BP34" s="30"/>
+      <c r="BQ34" s="30"/>
+      <c r="BR34" s="30"/>
+      <c r="BS34" s="30"/>
+      <c r="BT34" s="30"/>
+      <c r="BU34" s="30"/>
+      <c r="BV34" s="30"/>
       <c r="BW34" s="3" t="s">
         <v>55</v>
       </c>
@@ -6833,39 +6833,39 @@
       </c>
       <c r="BZ34" s="5"/>
       <c r="CA34" s="5"/>
-      <c r="CB34" s="20"/>
+      <c r="CB34" s="30"/>
     </row>
     <row r="35" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
       <c r="H35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
-      <c r="AB35" s="21"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
       <c r="AC35" s="3" t="s">
         <v>56</v>
       </c>
@@ -6923,33 +6923,33 @@
       <c r="AU35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AV35" s="21"/>
-      <c r="AW35" s="21"/>
-      <c r="AX35" s="21"/>
-      <c r="AY35" s="21"/>
-      <c r="AZ35" s="21"/>
-      <c r="BA35" s="21"/>
-      <c r="BB35" s="21"/>
-      <c r="BC35" s="21"/>
-      <c r="BD35" s="21"/>
-      <c r="BE35" s="21"/>
-      <c r="BF35" s="21"/>
-      <c r="BG35" s="21"/>
-      <c r="BH35" s="21"/>
-      <c r="BI35" s="21"/>
-      <c r="BJ35" s="21"/>
-      <c r="BK35" s="21"/>
-      <c r="BL35" s="21"/>
-      <c r="BM35" s="21"/>
-      <c r="BN35" s="21"/>
-      <c r="BO35" s="21"/>
-      <c r="BP35" s="21"/>
-      <c r="BQ35" s="21"/>
-      <c r="BR35" s="21"/>
-      <c r="BS35" s="21"/>
-      <c r="BT35" s="21"/>
-      <c r="BU35" s="21"/>
-      <c r="BV35" s="21"/>
+      <c r="AV35" s="22"/>
+      <c r="AW35" s="22"/>
+      <c r="AX35" s="22"/>
+      <c r="AY35" s="22"/>
+      <c r="AZ35" s="22"/>
+      <c r="BA35" s="22"/>
+      <c r="BB35" s="22"/>
+      <c r="BC35" s="22"/>
+      <c r="BD35" s="22"/>
+      <c r="BE35" s="22"/>
+      <c r="BF35" s="22"/>
+      <c r="BG35" s="22"/>
+      <c r="BH35" s="22"/>
+      <c r="BI35" s="22"/>
+      <c r="BJ35" s="22"/>
+      <c r="BK35" s="22"/>
+      <c r="BL35" s="22"/>
+      <c r="BM35" s="22"/>
+      <c r="BN35" s="22"/>
+      <c r="BO35" s="22"/>
+      <c r="BP35" s="22"/>
+      <c r="BQ35" s="22"/>
+      <c r="BR35" s="22"/>
+      <c r="BS35" s="22"/>
+      <c r="BT35" s="22"/>
+      <c r="BU35" s="22"/>
+      <c r="BV35" s="22"/>
       <c r="BW35" s="3" t="s">
         <v>56</v>
       </c>
@@ -6965,7 +6965,7 @@
       <c r="CA35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="CB35" s="21"/>
+      <c r="CB35" s="22"/>
     </row>
     <row r="36" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7934,30 +7934,868 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="910">
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="BP34:BP35"/>
+    <mergeCell ref="BQ34:BQ35"/>
+    <mergeCell ref="BR34:BR35"/>
+    <mergeCell ref="BS34:BS35"/>
+    <mergeCell ref="BT34:BT35"/>
+    <mergeCell ref="BU34:BU35"/>
+    <mergeCell ref="BV34:BV35"/>
+    <mergeCell ref="CB34:CB35"/>
+    <mergeCell ref="BP30:BP31"/>
+    <mergeCell ref="BQ30:BQ31"/>
+    <mergeCell ref="BR30:BR31"/>
+    <mergeCell ref="BS30:BS31"/>
+    <mergeCell ref="BT30:BT31"/>
+    <mergeCell ref="BU30:BU31"/>
+    <mergeCell ref="BV30:BV31"/>
+    <mergeCell ref="CB30:CB31"/>
+    <mergeCell ref="BP32:BP33"/>
+    <mergeCell ref="BQ32:BQ33"/>
+    <mergeCell ref="BR32:BR33"/>
+    <mergeCell ref="BS32:BS33"/>
+    <mergeCell ref="BT32:BT33"/>
+    <mergeCell ref="BU32:BU33"/>
+    <mergeCell ref="BV32:BV33"/>
+    <mergeCell ref="CB32:CB33"/>
+    <mergeCell ref="BP26:BP27"/>
+    <mergeCell ref="BQ26:BQ27"/>
+    <mergeCell ref="BR26:BR27"/>
+    <mergeCell ref="BS26:BS27"/>
+    <mergeCell ref="BT26:BT27"/>
+    <mergeCell ref="BU26:BU27"/>
+    <mergeCell ref="BV26:BV27"/>
+    <mergeCell ref="CB26:CB27"/>
+    <mergeCell ref="BP28:BP29"/>
+    <mergeCell ref="BQ28:BQ29"/>
+    <mergeCell ref="BR28:BR29"/>
+    <mergeCell ref="BS28:BS29"/>
+    <mergeCell ref="BT28:BT29"/>
+    <mergeCell ref="BU28:BU29"/>
+    <mergeCell ref="BV28:BV29"/>
+    <mergeCell ref="CB28:CB29"/>
+    <mergeCell ref="BP22:BP23"/>
+    <mergeCell ref="BQ22:BQ23"/>
+    <mergeCell ref="BR22:BR23"/>
+    <mergeCell ref="BS22:BS23"/>
+    <mergeCell ref="BT22:BT23"/>
+    <mergeCell ref="BU22:BU23"/>
+    <mergeCell ref="BV22:BV23"/>
+    <mergeCell ref="CB22:CB23"/>
+    <mergeCell ref="BP24:BP25"/>
+    <mergeCell ref="BQ24:BQ25"/>
+    <mergeCell ref="BR24:BR25"/>
+    <mergeCell ref="BS24:BS25"/>
+    <mergeCell ref="BT24:BT25"/>
+    <mergeCell ref="BU24:BU25"/>
+    <mergeCell ref="BV24:BV25"/>
+    <mergeCell ref="CB24:CB25"/>
+    <mergeCell ref="BP18:BP19"/>
+    <mergeCell ref="BQ18:BQ19"/>
+    <mergeCell ref="BR18:BR19"/>
+    <mergeCell ref="BS18:BS19"/>
+    <mergeCell ref="BT18:BT19"/>
+    <mergeCell ref="BU18:BU19"/>
+    <mergeCell ref="BV18:BV19"/>
+    <mergeCell ref="CB18:CB19"/>
+    <mergeCell ref="BP20:BP21"/>
+    <mergeCell ref="BQ20:BQ21"/>
+    <mergeCell ref="BR20:BR21"/>
+    <mergeCell ref="BS20:BS21"/>
+    <mergeCell ref="BT20:BT21"/>
+    <mergeCell ref="BU20:BU21"/>
+    <mergeCell ref="BV20:BV21"/>
+    <mergeCell ref="CB20:CB21"/>
+    <mergeCell ref="BP14:BP15"/>
+    <mergeCell ref="BQ14:BQ15"/>
+    <mergeCell ref="BR14:BR15"/>
+    <mergeCell ref="BS14:BS15"/>
+    <mergeCell ref="BT14:BT15"/>
+    <mergeCell ref="BU14:BU15"/>
+    <mergeCell ref="BV14:BV15"/>
+    <mergeCell ref="CB14:CB15"/>
+    <mergeCell ref="BP16:BP17"/>
+    <mergeCell ref="BQ16:BQ17"/>
+    <mergeCell ref="BR16:BR17"/>
+    <mergeCell ref="BS16:BS17"/>
+    <mergeCell ref="BT16:BT17"/>
+    <mergeCell ref="BU16:BU17"/>
+    <mergeCell ref="BV16:BV17"/>
+    <mergeCell ref="CB16:CB17"/>
+    <mergeCell ref="BP10:BP11"/>
+    <mergeCell ref="BQ10:BQ11"/>
+    <mergeCell ref="BR10:BR11"/>
+    <mergeCell ref="BS10:BS11"/>
+    <mergeCell ref="BT10:BT11"/>
+    <mergeCell ref="BU10:BU11"/>
+    <mergeCell ref="BV10:BV11"/>
+    <mergeCell ref="CB10:CB11"/>
+    <mergeCell ref="BP12:BP13"/>
+    <mergeCell ref="BQ12:BQ13"/>
+    <mergeCell ref="BR12:BR13"/>
+    <mergeCell ref="BS12:BS13"/>
+    <mergeCell ref="BT12:BT13"/>
+    <mergeCell ref="BU12:BU13"/>
+    <mergeCell ref="BV12:BV13"/>
+    <mergeCell ref="CB12:CB13"/>
+    <mergeCell ref="BT6:BT7"/>
+    <mergeCell ref="BU6:BU7"/>
+    <mergeCell ref="BV6:BV7"/>
+    <mergeCell ref="CB6:CB7"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BQ8:BQ9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BS8:BS9"/>
+    <mergeCell ref="BT8:BT9"/>
+    <mergeCell ref="BU8:BU9"/>
+    <mergeCell ref="BV8:BV9"/>
+    <mergeCell ref="CB8:CB9"/>
+    <mergeCell ref="BK34:BK35"/>
+    <mergeCell ref="BL34:BL35"/>
+    <mergeCell ref="BM34:BM35"/>
+    <mergeCell ref="BN34:BN35"/>
+    <mergeCell ref="BO34:BO35"/>
+    <mergeCell ref="BP1:CB1"/>
+    <mergeCell ref="BP2:BQ2"/>
+    <mergeCell ref="BR2:BV2"/>
+    <mergeCell ref="BW2:CA2"/>
+    <mergeCell ref="CB2:CB5"/>
+    <mergeCell ref="BP3:BP5"/>
+    <mergeCell ref="BQ3:BQ5"/>
+    <mergeCell ref="BR3:BR5"/>
+    <mergeCell ref="BS3:BS5"/>
+    <mergeCell ref="BT3:BT5"/>
+    <mergeCell ref="BU3:BU5"/>
+    <mergeCell ref="BV3:BV5"/>
+    <mergeCell ref="BW3:BY4"/>
+    <mergeCell ref="BZ3:BZ5"/>
+    <mergeCell ref="CA3:CA5"/>
+    <mergeCell ref="BP6:BP7"/>
+    <mergeCell ref="BQ6:BQ7"/>
+    <mergeCell ref="BR6:BR7"/>
+    <mergeCell ref="BS6:BS7"/>
+    <mergeCell ref="BB34:BB35"/>
+    <mergeCell ref="BC34:BC35"/>
+    <mergeCell ref="BD34:BD35"/>
+    <mergeCell ref="BE34:BE35"/>
+    <mergeCell ref="BF34:BF35"/>
+    <mergeCell ref="BG34:BG35"/>
+    <mergeCell ref="BH34:BH35"/>
+    <mergeCell ref="BI34:BI35"/>
+    <mergeCell ref="BJ34:BJ35"/>
+    <mergeCell ref="BK32:BK33"/>
+    <mergeCell ref="BL32:BL33"/>
+    <mergeCell ref="BM32:BM33"/>
+    <mergeCell ref="BN32:BN33"/>
+    <mergeCell ref="BO32:BO33"/>
+    <mergeCell ref="BB30:BB31"/>
+    <mergeCell ref="BC30:BC31"/>
+    <mergeCell ref="BD30:BD31"/>
+    <mergeCell ref="BE30:BE31"/>
+    <mergeCell ref="BF30:BF31"/>
+    <mergeCell ref="BB32:BB33"/>
+    <mergeCell ref="BC32:BC33"/>
+    <mergeCell ref="BD32:BD33"/>
+    <mergeCell ref="BE32:BE33"/>
+    <mergeCell ref="BF32:BF33"/>
+    <mergeCell ref="BG32:BG33"/>
+    <mergeCell ref="BH32:BH33"/>
+    <mergeCell ref="BI32:BI33"/>
+    <mergeCell ref="BJ32:BJ33"/>
+    <mergeCell ref="BG30:BG31"/>
+    <mergeCell ref="BH30:BH31"/>
+    <mergeCell ref="BI30:BI31"/>
+    <mergeCell ref="BJ30:BJ31"/>
+    <mergeCell ref="BK26:BK27"/>
+    <mergeCell ref="BL26:BL27"/>
+    <mergeCell ref="BM26:BM27"/>
+    <mergeCell ref="BN26:BN27"/>
+    <mergeCell ref="BO26:BO27"/>
+    <mergeCell ref="BK28:BK29"/>
+    <mergeCell ref="BL28:BL29"/>
+    <mergeCell ref="BM28:BM29"/>
+    <mergeCell ref="BN28:BN29"/>
+    <mergeCell ref="BO28:BO29"/>
+    <mergeCell ref="BK30:BK31"/>
+    <mergeCell ref="BL30:BL31"/>
+    <mergeCell ref="BM30:BM31"/>
+    <mergeCell ref="BN30:BN31"/>
+    <mergeCell ref="BO30:BO31"/>
+    <mergeCell ref="BB28:BB29"/>
+    <mergeCell ref="BC28:BC29"/>
+    <mergeCell ref="BD28:BD29"/>
+    <mergeCell ref="BE28:BE29"/>
+    <mergeCell ref="BF28:BF29"/>
+    <mergeCell ref="BG28:BG29"/>
+    <mergeCell ref="BH28:BH29"/>
+    <mergeCell ref="BI28:BI29"/>
+    <mergeCell ref="BJ28:BJ29"/>
+    <mergeCell ref="BB26:BB27"/>
+    <mergeCell ref="BC26:BC27"/>
+    <mergeCell ref="BD26:BD27"/>
+    <mergeCell ref="BE26:BE27"/>
+    <mergeCell ref="BF26:BF27"/>
+    <mergeCell ref="BG26:BG27"/>
+    <mergeCell ref="BH26:BH27"/>
+    <mergeCell ref="BI26:BI27"/>
+    <mergeCell ref="BJ26:BJ27"/>
+    <mergeCell ref="BK24:BK25"/>
+    <mergeCell ref="BL24:BL25"/>
+    <mergeCell ref="BM24:BM25"/>
+    <mergeCell ref="BN24:BN25"/>
+    <mergeCell ref="BO24:BO25"/>
+    <mergeCell ref="BB22:BB23"/>
+    <mergeCell ref="BC22:BC23"/>
+    <mergeCell ref="BD22:BD23"/>
+    <mergeCell ref="BE22:BE23"/>
+    <mergeCell ref="BF22:BF23"/>
+    <mergeCell ref="BB24:BB25"/>
+    <mergeCell ref="BC24:BC25"/>
+    <mergeCell ref="BD24:BD25"/>
+    <mergeCell ref="BE24:BE25"/>
+    <mergeCell ref="BF24:BF25"/>
+    <mergeCell ref="BG24:BG25"/>
+    <mergeCell ref="BH24:BH25"/>
+    <mergeCell ref="BI24:BI25"/>
+    <mergeCell ref="BJ24:BJ25"/>
+    <mergeCell ref="BG22:BG23"/>
+    <mergeCell ref="BH22:BH23"/>
+    <mergeCell ref="BI22:BI23"/>
+    <mergeCell ref="BJ22:BJ23"/>
+    <mergeCell ref="BK18:BK19"/>
+    <mergeCell ref="BL18:BL19"/>
+    <mergeCell ref="BM18:BM19"/>
+    <mergeCell ref="BN18:BN19"/>
+    <mergeCell ref="BO18:BO19"/>
+    <mergeCell ref="BK20:BK21"/>
+    <mergeCell ref="BL20:BL21"/>
+    <mergeCell ref="BM20:BM21"/>
+    <mergeCell ref="BN20:BN21"/>
+    <mergeCell ref="BO20:BO21"/>
+    <mergeCell ref="BK22:BK23"/>
+    <mergeCell ref="BL22:BL23"/>
+    <mergeCell ref="BM22:BM23"/>
+    <mergeCell ref="BN22:BN23"/>
+    <mergeCell ref="BO22:BO23"/>
+    <mergeCell ref="BB20:BB21"/>
+    <mergeCell ref="BC20:BC21"/>
+    <mergeCell ref="BD20:BD21"/>
+    <mergeCell ref="BE20:BE21"/>
+    <mergeCell ref="BF20:BF21"/>
+    <mergeCell ref="BG20:BG21"/>
+    <mergeCell ref="BH20:BH21"/>
+    <mergeCell ref="BI20:BI21"/>
+    <mergeCell ref="BJ20:BJ21"/>
+    <mergeCell ref="BB18:BB19"/>
+    <mergeCell ref="BC18:BC19"/>
+    <mergeCell ref="BD18:BD19"/>
+    <mergeCell ref="BE18:BE19"/>
+    <mergeCell ref="BF18:BF19"/>
+    <mergeCell ref="BG18:BG19"/>
+    <mergeCell ref="BH18:BH19"/>
+    <mergeCell ref="BI18:BI19"/>
+    <mergeCell ref="BJ18:BJ19"/>
+    <mergeCell ref="BK16:BK17"/>
+    <mergeCell ref="BL16:BL17"/>
+    <mergeCell ref="BM16:BM17"/>
+    <mergeCell ref="BN16:BN17"/>
+    <mergeCell ref="BO16:BO17"/>
+    <mergeCell ref="BB14:BB15"/>
+    <mergeCell ref="BC14:BC15"/>
+    <mergeCell ref="BD14:BD15"/>
+    <mergeCell ref="BE14:BE15"/>
+    <mergeCell ref="BF14:BF15"/>
+    <mergeCell ref="BB16:BB17"/>
+    <mergeCell ref="BC16:BC17"/>
+    <mergeCell ref="BD16:BD17"/>
+    <mergeCell ref="BE16:BE17"/>
+    <mergeCell ref="BF16:BF17"/>
+    <mergeCell ref="BG16:BG17"/>
+    <mergeCell ref="BH16:BH17"/>
+    <mergeCell ref="BI16:BI17"/>
+    <mergeCell ref="BJ16:BJ17"/>
+    <mergeCell ref="BG14:BG15"/>
+    <mergeCell ref="BH14:BH15"/>
+    <mergeCell ref="BI14:BI15"/>
+    <mergeCell ref="BJ14:BJ15"/>
+    <mergeCell ref="BK10:BK11"/>
+    <mergeCell ref="BL10:BL11"/>
+    <mergeCell ref="BM10:BM11"/>
+    <mergeCell ref="BN10:BN11"/>
+    <mergeCell ref="BO10:BO11"/>
+    <mergeCell ref="BK12:BK13"/>
+    <mergeCell ref="BL12:BL13"/>
+    <mergeCell ref="BM12:BM13"/>
+    <mergeCell ref="BN12:BN13"/>
+    <mergeCell ref="BO12:BO13"/>
+    <mergeCell ref="BK14:BK15"/>
+    <mergeCell ref="BL14:BL15"/>
+    <mergeCell ref="BM14:BM15"/>
+    <mergeCell ref="BN14:BN15"/>
+    <mergeCell ref="BO14:BO15"/>
+    <mergeCell ref="BB12:BB13"/>
+    <mergeCell ref="BC12:BC13"/>
+    <mergeCell ref="BD12:BD13"/>
+    <mergeCell ref="BE12:BE13"/>
+    <mergeCell ref="BF12:BF13"/>
+    <mergeCell ref="BG12:BG13"/>
+    <mergeCell ref="BH12:BH13"/>
+    <mergeCell ref="BI12:BI13"/>
+    <mergeCell ref="BJ12:BJ13"/>
+    <mergeCell ref="BB10:BB11"/>
+    <mergeCell ref="BC10:BC11"/>
+    <mergeCell ref="BD10:BD11"/>
+    <mergeCell ref="BE10:BE11"/>
+    <mergeCell ref="BF10:BF11"/>
+    <mergeCell ref="BG10:BG11"/>
+    <mergeCell ref="BH10:BH11"/>
+    <mergeCell ref="BI10:BI11"/>
+    <mergeCell ref="BJ10:BJ11"/>
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="BC8:BC9"/>
+    <mergeCell ref="BD8:BD9"/>
+    <mergeCell ref="BE8:BE9"/>
+    <mergeCell ref="BF8:BF9"/>
+    <mergeCell ref="BG8:BG9"/>
+    <mergeCell ref="BH8:BH9"/>
+    <mergeCell ref="BI8:BI9"/>
+    <mergeCell ref="BJ8:BJ9"/>
+    <mergeCell ref="BK8:BK9"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BM8:BM9"/>
+    <mergeCell ref="BN8:BN9"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BB6:BB7"/>
+    <mergeCell ref="BC6:BC7"/>
+    <mergeCell ref="BD6:BD7"/>
+    <mergeCell ref="BE6:BE7"/>
+    <mergeCell ref="BF6:BF7"/>
+    <mergeCell ref="BG6:BG7"/>
+    <mergeCell ref="BH6:BH7"/>
+    <mergeCell ref="BI6:BI7"/>
+    <mergeCell ref="BJ6:BJ7"/>
+    <mergeCell ref="BK6:BK7"/>
+    <mergeCell ref="BL6:BL7"/>
+    <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="BN6:BN7"/>
+    <mergeCell ref="AV34:AV35"/>
+    <mergeCell ref="AW34:AW35"/>
+    <mergeCell ref="AX34:AX35"/>
+    <mergeCell ref="AY34:AY35"/>
+    <mergeCell ref="AZ34:AZ35"/>
+    <mergeCell ref="BA34:BA35"/>
+    <mergeCell ref="BB1:BO1"/>
+    <mergeCell ref="BB2:BE2"/>
+    <mergeCell ref="BF2:BG2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BB3:BC3"/>
+    <mergeCell ref="BD3:BE3"/>
+    <mergeCell ref="BF3:BF5"/>
+    <mergeCell ref="BH3:BH5"/>
+    <mergeCell ref="BI3:BI5"/>
+    <mergeCell ref="BJ3:BJ5"/>
+    <mergeCell ref="BK3:BN3"/>
+    <mergeCell ref="BO3:BO5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="AV30:AV31"/>
+    <mergeCell ref="AW30:AW31"/>
+    <mergeCell ref="AX30:AX31"/>
+    <mergeCell ref="AY30:AY31"/>
+    <mergeCell ref="AZ30:AZ31"/>
+    <mergeCell ref="BA30:BA31"/>
+    <mergeCell ref="AV32:AV33"/>
+    <mergeCell ref="AW32:AW33"/>
+    <mergeCell ref="AX32:AX33"/>
+    <mergeCell ref="AY32:AY33"/>
+    <mergeCell ref="AZ32:AZ33"/>
+    <mergeCell ref="BA32:BA33"/>
+    <mergeCell ref="AV26:AV27"/>
+    <mergeCell ref="AW26:AW27"/>
+    <mergeCell ref="AX26:AX27"/>
+    <mergeCell ref="AY26:AY27"/>
+    <mergeCell ref="AZ26:AZ27"/>
+    <mergeCell ref="BA26:BA27"/>
+    <mergeCell ref="AV28:AV29"/>
+    <mergeCell ref="AW28:AW29"/>
+    <mergeCell ref="AX28:AX29"/>
+    <mergeCell ref="AY28:AY29"/>
+    <mergeCell ref="AZ28:AZ29"/>
+    <mergeCell ref="BA28:BA29"/>
+    <mergeCell ref="AV22:AV23"/>
+    <mergeCell ref="AW22:AW23"/>
+    <mergeCell ref="AX22:AX23"/>
+    <mergeCell ref="AY22:AY23"/>
+    <mergeCell ref="AZ22:AZ23"/>
+    <mergeCell ref="BA22:BA23"/>
+    <mergeCell ref="AV24:AV25"/>
+    <mergeCell ref="AW24:AW25"/>
+    <mergeCell ref="AX24:AX25"/>
+    <mergeCell ref="AY24:AY25"/>
+    <mergeCell ref="AZ24:AZ25"/>
+    <mergeCell ref="BA24:BA25"/>
+    <mergeCell ref="AV18:AV19"/>
+    <mergeCell ref="AW18:AW19"/>
+    <mergeCell ref="AX18:AX19"/>
+    <mergeCell ref="AY18:AY19"/>
+    <mergeCell ref="AZ18:AZ19"/>
+    <mergeCell ref="BA18:BA19"/>
+    <mergeCell ref="AV20:AV21"/>
+    <mergeCell ref="AW20:AW21"/>
+    <mergeCell ref="AX20:AX21"/>
+    <mergeCell ref="AY20:AY21"/>
+    <mergeCell ref="AZ20:AZ21"/>
+    <mergeCell ref="BA20:BA21"/>
+    <mergeCell ref="AV14:AV15"/>
+    <mergeCell ref="AW14:AW15"/>
+    <mergeCell ref="AX14:AX15"/>
+    <mergeCell ref="AY14:AY15"/>
+    <mergeCell ref="AZ14:AZ15"/>
+    <mergeCell ref="BA14:BA15"/>
+    <mergeCell ref="AV16:AV17"/>
+    <mergeCell ref="AW16:AW17"/>
+    <mergeCell ref="AX16:AX17"/>
+    <mergeCell ref="AY16:AY17"/>
+    <mergeCell ref="AZ16:AZ17"/>
+    <mergeCell ref="BA16:BA17"/>
+    <mergeCell ref="AV10:AV11"/>
+    <mergeCell ref="AW10:AW11"/>
+    <mergeCell ref="AX10:AX11"/>
+    <mergeCell ref="AY10:AY11"/>
+    <mergeCell ref="AZ10:AZ11"/>
+    <mergeCell ref="BA10:BA11"/>
+    <mergeCell ref="AV12:AV13"/>
+    <mergeCell ref="AW12:AW13"/>
+    <mergeCell ref="AX12:AX13"/>
+    <mergeCell ref="AY12:AY13"/>
+    <mergeCell ref="AZ12:AZ13"/>
+    <mergeCell ref="BA12:BA13"/>
+    <mergeCell ref="AV6:AV7"/>
+    <mergeCell ref="AW6:AW7"/>
+    <mergeCell ref="AX6:AX7"/>
+    <mergeCell ref="AY6:AY7"/>
+    <mergeCell ref="AZ6:AZ7"/>
+    <mergeCell ref="BA6:BA7"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="AO1:BA1"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:BA2"/>
+    <mergeCell ref="AO3:AP4"/>
+    <mergeCell ref="AQ3:AQ5"/>
+    <mergeCell ref="AR3:AT4"/>
+    <mergeCell ref="AU3:AU5"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="X34:X35"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="AB34:AB35"/>
+    <mergeCell ref="AC1:AN1"/>
+    <mergeCell ref="AC2:AN2"/>
+    <mergeCell ref="AC3:AC5"/>
+    <mergeCell ref="AD3:AI4"/>
+    <mergeCell ref="AJ3:AJ5"/>
+    <mergeCell ref="AK3:AN4"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="Z30:Z31"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AB30:AB31"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AB18:AB19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="AB20:AB21"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M1:AB1"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="S2:U3"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="W3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="K8:K9"/>
@@ -7982,868 +8820,30 @@
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="L18:L19"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="M1:AB1"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="S2:U3"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:R5"/>
-    <mergeCell ref="W3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AB18:AB19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="AB20:AB21"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="X34:X35"/>
-    <mergeCell ref="Y34:Y35"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="AB34:AB35"/>
-    <mergeCell ref="AC1:AN1"/>
-    <mergeCell ref="AC2:AN2"/>
-    <mergeCell ref="AC3:AC5"/>
-    <mergeCell ref="AD3:AI4"/>
-    <mergeCell ref="AJ3:AJ5"/>
-    <mergeCell ref="AK3:AN4"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="Y30:Y31"/>
-    <mergeCell ref="Z30:Z31"/>
-    <mergeCell ref="AA30:AA31"/>
-    <mergeCell ref="AB30:AB31"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="AO1:BA1"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:BA2"/>
-    <mergeCell ref="AO3:AP4"/>
-    <mergeCell ref="AQ3:AQ5"/>
-    <mergeCell ref="AR3:AT4"/>
-    <mergeCell ref="AU3:AU5"/>
-    <mergeCell ref="AV3:AW3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="AV6:AV7"/>
-    <mergeCell ref="AW6:AW7"/>
-    <mergeCell ref="AX6:AX7"/>
-    <mergeCell ref="AY6:AY7"/>
-    <mergeCell ref="AZ6:AZ7"/>
-    <mergeCell ref="BA6:BA7"/>
-    <mergeCell ref="AV8:AV9"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="AX8:AX9"/>
-    <mergeCell ref="AY8:AY9"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="BA8:BA9"/>
-    <mergeCell ref="AV10:AV11"/>
-    <mergeCell ref="AW10:AW11"/>
-    <mergeCell ref="AX10:AX11"/>
-    <mergeCell ref="AY10:AY11"/>
-    <mergeCell ref="AZ10:AZ11"/>
-    <mergeCell ref="BA10:BA11"/>
-    <mergeCell ref="AV12:AV13"/>
-    <mergeCell ref="AW12:AW13"/>
-    <mergeCell ref="AX12:AX13"/>
-    <mergeCell ref="AY12:AY13"/>
-    <mergeCell ref="AZ12:AZ13"/>
-    <mergeCell ref="BA12:BA13"/>
-    <mergeCell ref="AV14:AV15"/>
-    <mergeCell ref="AW14:AW15"/>
-    <mergeCell ref="AX14:AX15"/>
-    <mergeCell ref="AY14:AY15"/>
-    <mergeCell ref="AZ14:AZ15"/>
-    <mergeCell ref="BA14:BA15"/>
-    <mergeCell ref="AV16:AV17"/>
-    <mergeCell ref="AW16:AW17"/>
-    <mergeCell ref="AX16:AX17"/>
-    <mergeCell ref="AY16:AY17"/>
-    <mergeCell ref="AZ16:AZ17"/>
-    <mergeCell ref="BA16:BA17"/>
-    <mergeCell ref="AV18:AV19"/>
-    <mergeCell ref="AW18:AW19"/>
-    <mergeCell ref="AX18:AX19"/>
-    <mergeCell ref="AY18:AY19"/>
-    <mergeCell ref="AZ18:AZ19"/>
-    <mergeCell ref="BA18:BA19"/>
-    <mergeCell ref="AV20:AV21"/>
-    <mergeCell ref="AW20:AW21"/>
-    <mergeCell ref="AX20:AX21"/>
-    <mergeCell ref="AY20:AY21"/>
-    <mergeCell ref="AZ20:AZ21"/>
-    <mergeCell ref="BA20:BA21"/>
-    <mergeCell ref="AV22:AV23"/>
-    <mergeCell ref="AW22:AW23"/>
-    <mergeCell ref="AX22:AX23"/>
-    <mergeCell ref="AY22:AY23"/>
-    <mergeCell ref="AZ22:AZ23"/>
-    <mergeCell ref="BA22:BA23"/>
-    <mergeCell ref="AV24:AV25"/>
-    <mergeCell ref="AW24:AW25"/>
-    <mergeCell ref="AX24:AX25"/>
-    <mergeCell ref="AY24:AY25"/>
-    <mergeCell ref="AZ24:AZ25"/>
-    <mergeCell ref="BA24:BA25"/>
-    <mergeCell ref="AV26:AV27"/>
-    <mergeCell ref="AW26:AW27"/>
-    <mergeCell ref="AX26:AX27"/>
-    <mergeCell ref="AY26:AY27"/>
-    <mergeCell ref="AZ26:AZ27"/>
-    <mergeCell ref="BA26:BA27"/>
-    <mergeCell ref="AV28:AV29"/>
-    <mergeCell ref="AW28:AW29"/>
-    <mergeCell ref="AX28:AX29"/>
-    <mergeCell ref="AY28:AY29"/>
-    <mergeCell ref="AZ28:AZ29"/>
-    <mergeCell ref="BA28:BA29"/>
-    <mergeCell ref="AV30:AV31"/>
-    <mergeCell ref="AW30:AW31"/>
-    <mergeCell ref="AX30:AX31"/>
-    <mergeCell ref="AY30:AY31"/>
-    <mergeCell ref="AZ30:AZ31"/>
-    <mergeCell ref="BA30:BA31"/>
-    <mergeCell ref="AV32:AV33"/>
-    <mergeCell ref="AW32:AW33"/>
-    <mergeCell ref="AX32:AX33"/>
-    <mergeCell ref="AY32:AY33"/>
-    <mergeCell ref="AZ32:AZ33"/>
-    <mergeCell ref="BA32:BA33"/>
-    <mergeCell ref="AV34:AV35"/>
-    <mergeCell ref="AW34:AW35"/>
-    <mergeCell ref="AX34:AX35"/>
-    <mergeCell ref="AY34:AY35"/>
-    <mergeCell ref="AZ34:AZ35"/>
-    <mergeCell ref="BA34:BA35"/>
-    <mergeCell ref="BB1:BO1"/>
-    <mergeCell ref="BB2:BE2"/>
-    <mergeCell ref="BF2:BG2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BB3:BC3"/>
-    <mergeCell ref="BD3:BE3"/>
-    <mergeCell ref="BF3:BF5"/>
-    <mergeCell ref="BH3:BH5"/>
-    <mergeCell ref="BI3:BI5"/>
-    <mergeCell ref="BJ3:BJ5"/>
-    <mergeCell ref="BK3:BN3"/>
-    <mergeCell ref="BO3:BO5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BB6:BB7"/>
-    <mergeCell ref="BC6:BC7"/>
-    <mergeCell ref="BD6:BD7"/>
-    <mergeCell ref="BE6:BE7"/>
-    <mergeCell ref="BF6:BF7"/>
-    <mergeCell ref="BG6:BG7"/>
-    <mergeCell ref="BH6:BH7"/>
-    <mergeCell ref="BI6:BI7"/>
-    <mergeCell ref="BJ6:BJ7"/>
-    <mergeCell ref="BK6:BK7"/>
-    <mergeCell ref="BL6:BL7"/>
-    <mergeCell ref="BM6:BM7"/>
-    <mergeCell ref="BN6:BN7"/>
-    <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="BB8:BB9"/>
-    <mergeCell ref="BC8:BC9"/>
-    <mergeCell ref="BD8:BD9"/>
-    <mergeCell ref="BE8:BE9"/>
-    <mergeCell ref="BF8:BF9"/>
-    <mergeCell ref="BG8:BG9"/>
-    <mergeCell ref="BH8:BH9"/>
-    <mergeCell ref="BI8:BI9"/>
-    <mergeCell ref="BJ8:BJ9"/>
-    <mergeCell ref="BK8:BK9"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BM8:BM9"/>
-    <mergeCell ref="BN8:BN9"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="BB10:BB11"/>
-    <mergeCell ref="BC10:BC11"/>
-    <mergeCell ref="BD10:BD11"/>
-    <mergeCell ref="BE10:BE11"/>
-    <mergeCell ref="BF10:BF11"/>
-    <mergeCell ref="BG10:BG11"/>
-    <mergeCell ref="BH10:BH11"/>
-    <mergeCell ref="BI10:BI11"/>
-    <mergeCell ref="BJ10:BJ11"/>
-    <mergeCell ref="BB12:BB13"/>
-    <mergeCell ref="BC12:BC13"/>
-    <mergeCell ref="BD12:BD13"/>
-    <mergeCell ref="BE12:BE13"/>
-    <mergeCell ref="BF12:BF13"/>
-    <mergeCell ref="BG12:BG13"/>
-    <mergeCell ref="BH12:BH13"/>
-    <mergeCell ref="BI12:BI13"/>
-    <mergeCell ref="BJ12:BJ13"/>
-    <mergeCell ref="BG14:BG15"/>
-    <mergeCell ref="BH14:BH15"/>
-    <mergeCell ref="BI14:BI15"/>
-    <mergeCell ref="BJ14:BJ15"/>
-    <mergeCell ref="BK10:BK11"/>
-    <mergeCell ref="BL10:BL11"/>
-    <mergeCell ref="BM10:BM11"/>
-    <mergeCell ref="BN10:BN11"/>
-    <mergeCell ref="BO10:BO11"/>
-    <mergeCell ref="BK12:BK13"/>
-    <mergeCell ref="BL12:BL13"/>
-    <mergeCell ref="BM12:BM13"/>
-    <mergeCell ref="BN12:BN13"/>
-    <mergeCell ref="BO12:BO13"/>
-    <mergeCell ref="BK14:BK15"/>
-    <mergeCell ref="BL14:BL15"/>
-    <mergeCell ref="BM14:BM15"/>
-    <mergeCell ref="BN14:BN15"/>
-    <mergeCell ref="BO14:BO15"/>
-    <mergeCell ref="BB16:BB17"/>
-    <mergeCell ref="BC16:BC17"/>
-    <mergeCell ref="BD16:BD17"/>
-    <mergeCell ref="BE16:BE17"/>
-    <mergeCell ref="BF16:BF17"/>
-    <mergeCell ref="BG16:BG17"/>
-    <mergeCell ref="BH16:BH17"/>
-    <mergeCell ref="BI16:BI17"/>
-    <mergeCell ref="BJ16:BJ17"/>
-    <mergeCell ref="BK16:BK17"/>
-    <mergeCell ref="BL16:BL17"/>
-    <mergeCell ref="BM16:BM17"/>
-    <mergeCell ref="BN16:BN17"/>
-    <mergeCell ref="BO16:BO17"/>
-    <mergeCell ref="BB14:BB15"/>
-    <mergeCell ref="BC14:BC15"/>
-    <mergeCell ref="BD14:BD15"/>
-    <mergeCell ref="BE14:BE15"/>
-    <mergeCell ref="BF14:BF15"/>
-    <mergeCell ref="BB18:BB19"/>
-    <mergeCell ref="BC18:BC19"/>
-    <mergeCell ref="BD18:BD19"/>
-    <mergeCell ref="BE18:BE19"/>
-    <mergeCell ref="BF18:BF19"/>
-    <mergeCell ref="BG18:BG19"/>
-    <mergeCell ref="BH18:BH19"/>
-    <mergeCell ref="BI18:BI19"/>
-    <mergeCell ref="BJ18:BJ19"/>
-    <mergeCell ref="BB20:BB21"/>
-    <mergeCell ref="BC20:BC21"/>
-    <mergeCell ref="BD20:BD21"/>
-    <mergeCell ref="BE20:BE21"/>
-    <mergeCell ref="BF20:BF21"/>
-    <mergeCell ref="BG20:BG21"/>
-    <mergeCell ref="BH20:BH21"/>
-    <mergeCell ref="BI20:BI21"/>
-    <mergeCell ref="BJ20:BJ21"/>
-    <mergeCell ref="BG22:BG23"/>
-    <mergeCell ref="BH22:BH23"/>
-    <mergeCell ref="BI22:BI23"/>
-    <mergeCell ref="BJ22:BJ23"/>
-    <mergeCell ref="BK18:BK19"/>
-    <mergeCell ref="BL18:BL19"/>
-    <mergeCell ref="BM18:BM19"/>
-    <mergeCell ref="BN18:BN19"/>
-    <mergeCell ref="BO18:BO19"/>
-    <mergeCell ref="BK20:BK21"/>
-    <mergeCell ref="BL20:BL21"/>
-    <mergeCell ref="BM20:BM21"/>
-    <mergeCell ref="BN20:BN21"/>
-    <mergeCell ref="BO20:BO21"/>
-    <mergeCell ref="BK22:BK23"/>
-    <mergeCell ref="BL22:BL23"/>
-    <mergeCell ref="BM22:BM23"/>
-    <mergeCell ref="BN22:BN23"/>
-    <mergeCell ref="BO22:BO23"/>
-    <mergeCell ref="BB24:BB25"/>
-    <mergeCell ref="BC24:BC25"/>
-    <mergeCell ref="BD24:BD25"/>
-    <mergeCell ref="BE24:BE25"/>
-    <mergeCell ref="BF24:BF25"/>
-    <mergeCell ref="BG24:BG25"/>
-    <mergeCell ref="BH24:BH25"/>
-    <mergeCell ref="BI24:BI25"/>
-    <mergeCell ref="BJ24:BJ25"/>
-    <mergeCell ref="BK24:BK25"/>
-    <mergeCell ref="BL24:BL25"/>
-    <mergeCell ref="BM24:BM25"/>
-    <mergeCell ref="BN24:BN25"/>
-    <mergeCell ref="BO24:BO25"/>
-    <mergeCell ref="BB22:BB23"/>
-    <mergeCell ref="BC22:BC23"/>
-    <mergeCell ref="BD22:BD23"/>
-    <mergeCell ref="BE22:BE23"/>
-    <mergeCell ref="BF22:BF23"/>
-    <mergeCell ref="BB26:BB27"/>
-    <mergeCell ref="BC26:BC27"/>
-    <mergeCell ref="BD26:BD27"/>
-    <mergeCell ref="BE26:BE27"/>
-    <mergeCell ref="BF26:BF27"/>
-    <mergeCell ref="BG26:BG27"/>
-    <mergeCell ref="BH26:BH27"/>
-    <mergeCell ref="BI26:BI27"/>
-    <mergeCell ref="BJ26:BJ27"/>
-    <mergeCell ref="BB28:BB29"/>
-    <mergeCell ref="BC28:BC29"/>
-    <mergeCell ref="BD28:BD29"/>
-    <mergeCell ref="BE28:BE29"/>
-    <mergeCell ref="BF28:BF29"/>
-    <mergeCell ref="BG28:BG29"/>
-    <mergeCell ref="BH28:BH29"/>
-    <mergeCell ref="BI28:BI29"/>
-    <mergeCell ref="BJ28:BJ29"/>
-    <mergeCell ref="BG30:BG31"/>
-    <mergeCell ref="BH30:BH31"/>
-    <mergeCell ref="BI30:BI31"/>
-    <mergeCell ref="BJ30:BJ31"/>
-    <mergeCell ref="BK26:BK27"/>
-    <mergeCell ref="BL26:BL27"/>
-    <mergeCell ref="BM26:BM27"/>
-    <mergeCell ref="BN26:BN27"/>
-    <mergeCell ref="BO26:BO27"/>
-    <mergeCell ref="BK28:BK29"/>
-    <mergeCell ref="BL28:BL29"/>
-    <mergeCell ref="BM28:BM29"/>
-    <mergeCell ref="BN28:BN29"/>
-    <mergeCell ref="BO28:BO29"/>
-    <mergeCell ref="BK30:BK31"/>
-    <mergeCell ref="BL30:BL31"/>
-    <mergeCell ref="BM30:BM31"/>
-    <mergeCell ref="BN30:BN31"/>
-    <mergeCell ref="BO30:BO31"/>
-    <mergeCell ref="BB32:BB33"/>
-    <mergeCell ref="BC32:BC33"/>
-    <mergeCell ref="BD32:BD33"/>
-    <mergeCell ref="BE32:BE33"/>
-    <mergeCell ref="BF32:BF33"/>
-    <mergeCell ref="BG32:BG33"/>
-    <mergeCell ref="BH32:BH33"/>
-    <mergeCell ref="BI32:BI33"/>
-    <mergeCell ref="BJ32:BJ33"/>
-    <mergeCell ref="BK32:BK33"/>
-    <mergeCell ref="BL32:BL33"/>
-    <mergeCell ref="BM32:BM33"/>
-    <mergeCell ref="BN32:BN33"/>
-    <mergeCell ref="BO32:BO33"/>
-    <mergeCell ref="BB30:BB31"/>
-    <mergeCell ref="BC30:BC31"/>
-    <mergeCell ref="BD30:BD31"/>
-    <mergeCell ref="BE30:BE31"/>
-    <mergeCell ref="BF30:BF31"/>
-    <mergeCell ref="BB34:BB35"/>
-    <mergeCell ref="BC34:BC35"/>
-    <mergeCell ref="BD34:BD35"/>
-    <mergeCell ref="BE34:BE35"/>
-    <mergeCell ref="BF34:BF35"/>
-    <mergeCell ref="BG34:BG35"/>
-    <mergeCell ref="BH34:BH35"/>
-    <mergeCell ref="BI34:BI35"/>
-    <mergeCell ref="BJ34:BJ35"/>
-    <mergeCell ref="BK34:BK35"/>
-    <mergeCell ref="BL34:BL35"/>
-    <mergeCell ref="BM34:BM35"/>
-    <mergeCell ref="BN34:BN35"/>
-    <mergeCell ref="BO34:BO35"/>
-    <mergeCell ref="BP1:CB1"/>
-    <mergeCell ref="BP2:BQ2"/>
-    <mergeCell ref="BR2:BV2"/>
-    <mergeCell ref="BW2:CA2"/>
-    <mergeCell ref="CB2:CB5"/>
-    <mergeCell ref="BP3:BP5"/>
-    <mergeCell ref="BQ3:BQ5"/>
-    <mergeCell ref="BR3:BR5"/>
-    <mergeCell ref="BS3:BS5"/>
-    <mergeCell ref="BT3:BT5"/>
-    <mergeCell ref="BU3:BU5"/>
-    <mergeCell ref="BV3:BV5"/>
-    <mergeCell ref="BW3:BY4"/>
-    <mergeCell ref="BZ3:BZ5"/>
-    <mergeCell ref="CA3:CA5"/>
-    <mergeCell ref="BP6:BP7"/>
-    <mergeCell ref="BQ6:BQ7"/>
-    <mergeCell ref="BR6:BR7"/>
-    <mergeCell ref="BS6:BS7"/>
-    <mergeCell ref="BT6:BT7"/>
-    <mergeCell ref="BU6:BU7"/>
-    <mergeCell ref="BV6:BV7"/>
-    <mergeCell ref="CB6:CB7"/>
-    <mergeCell ref="BP8:BP9"/>
-    <mergeCell ref="BQ8:BQ9"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BS8:BS9"/>
-    <mergeCell ref="BT8:BT9"/>
-    <mergeCell ref="BU8:BU9"/>
-    <mergeCell ref="BV8:BV9"/>
-    <mergeCell ref="CB8:CB9"/>
-    <mergeCell ref="BP10:BP11"/>
-    <mergeCell ref="BQ10:BQ11"/>
-    <mergeCell ref="BR10:BR11"/>
-    <mergeCell ref="BS10:BS11"/>
-    <mergeCell ref="BT10:BT11"/>
-    <mergeCell ref="BU10:BU11"/>
-    <mergeCell ref="BV10:BV11"/>
-    <mergeCell ref="CB10:CB11"/>
-    <mergeCell ref="BP12:BP13"/>
-    <mergeCell ref="BQ12:BQ13"/>
-    <mergeCell ref="BR12:BR13"/>
-    <mergeCell ref="BS12:BS13"/>
-    <mergeCell ref="BT12:BT13"/>
-    <mergeCell ref="BU12:BU13"/>
-    <mergeCell ref="BV12:BV13"/>
-    <mergeCell ref="CB12:CB13"/>
-    <mergeCell ref="BP14:BP15"/>
-    <mergeCell ref="BQ14:BQ15"/>
-    <mergeCell ref="BR14:BR15"/>
-    <mergeCell ref="BS14:BS15"/>
-    <mergeCell ref="BT14:BT15"/>
-    <mergeCell ref="BU14:BU15"/>
-    <mergeCell ref="BV14:BV15"/>
-    <mergeCell ref="CB14:CB15"/>
-    <mergeCell ref="BP16:BP17"/>
-    <mergeCell ref="BQ16:BQ17"/>
-    <mergeCell ref="BR16:BR17"/>
-    <mergeCell ref="BS16:BS17"/>
-    <mergeCell ref="BT16:BT17"/>
-    <mergeCell ref="BU16:BU17"/>
-    <mergeCell ref="BV16:BV17"/>
-    <mergeCell ref="CB16:CB17"/>
-    <mergeCell ref="BP18:BP19"/>
-    <mergeCell ref="BQ18:BQ19"/>
-    <mergeCell ref="BR18:BR19"/>
-    <mergeCell ref="BS18:BS19"/>
-    <mergeCell ref="BT18:BT19"/>
-    <mergeCell ref="BU18:BU19"/>
-    <mergeCell ref="BV18:BV19"/>
-    <mergeCell ref="CB18:CB19"/>
-    <mergeCell ref="BP20:BP21"/>
-    <mergeCell ref="BQ20:BQ21"/>
-    <mergeCell ref="BR20:BR21"/>
-    <mergeCell ref="BS20:BS21"/>
-    <mergeCell ref="BT20:BT21"/>
-    <mergeCell ref="BU20:BU21"/>
-    <mergeCell ref="BV20:BV21"/>
-    <mergeCell ref="CB20:CB21"/>
-    <mergeCell ref="BP22:BP23"/>
-    <mergeCell ref="BQ22:BQ23"/>
-    <mergeCell ref="BR22:BR23"/>
-    <mergeCell ref="BS22:BS23"/>
-    <mergeCell ref="BT22:BT23"/>
-    <mergeCell ref="BU22:BU23"/>
-    <mergeCell ref="BV22:BV23"/>
-    <mergeCell ref="CB22:CB23"/>
-    <mergeCell ref="BP24:BP25"/>
-    <mergeCell ref="BQ24:BQ25"/>
-    <mergeCell ref="BR24:BR25"/>
-    <mergeCell ref="BS24:BS25"/>
-    <mergeCell ref="BT24:BT25"/>
-    <mergeCell ref="BU24:BU25"/>
-    <mergeCell ref="BV24:BV25"/>
-    <mergeCell ref="CB24:CB25"/>
-    <mergeCell ref="BP26:BP27"/>
-    <mergeCell ref="BQ26:BQ27"/>
-    <mergeCell ref="BR26:BR27"/>
-    <mergeCell ref="BS26:BS27"/>
-    <mergeCell ref="BT26:BT27"/>
-    <mergeCell ref="BU26:BU27"/>
-    <mergeCell ref="BV26:BV27"/>
-    <mergeCell ref="CB26:CB27"/>
-    <mergeCell ref="BP28:BP29"/>
-    <mergeCell ref="BQ28:BQ29"/>
-    <mergeCell ref="BR28:BR29"/>
-    <mergeCell ref="BS28:BS29"/>
-    <mergeCell ref="BT28:BT29"/>
-    <mergeCell ref="BU28:BU29"/>
-    <mergeCell ref="BV28:BV29"/>
-    <mergeCell ref="CB28:CB29"/>
-    <mergeCell ref="BP34:BP35"/>
-    <mergeCell ref="BQ34:BQ35"/>
-    <mergeCell ref="BR34:BR35"/>
-    <mergeCell ref="BS34:BS35"/>
-    <mergeCell ref="BT34:BT35"/>
-    <mergeCell ref="BU34:BU35"/>
-    <mergeCell ref="BV34:BV35"/>
-    <mergeCell ref="CB34:CB35"/>
-    <mergeCell ref="BP30:BP31"/>
-    <mergeCell ref="BQ30:BQ31"/>
-    <mergeCell ref="BR30:BR31"/>
-    <mergeCell ref="BS30:BS31"/>
-    <mergeCell ref="BT30:BT31"/>
-    <mergeCell ref="BU30:BU31"/>
-    <mergeCell ref="BV30:BV31"/>
-    <mergeCell ref="CB30:CB31"/>
-    <mergeCell ref="BP32:BP33"/>
-    <mergeCell ref="BQ32:BQ33"/>
-    <mergeCell ref="BR32:BR33"/>
-    <mergeCell ref="BS32:BS33"/>
-    <mergeCell ref="BT32:BT33"/>
-    <mergeCell ref="BU32:BU33"/>
-    <mergeCell ref="BV32:BV33"/>
-    <mergeCell ref="CB32:CB33"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="96" orientation="landscape"/>
